--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -13,19 +13,21 @@
     <sheet name="AuthorizationAddCorrection" sheetId="4" r:id="rId4"/>
     <sheet name="AuthorizationAddCorrDecrease" sheetId="5" r:id="rId5"/>
     <sheet name="AuthorizationAddComment" sheetId="6" r:id="rId6"/>
-    <sheet name="AuthorizationResponseAuthz" sheetId="7" r:id="rId7"/>
-    <sheet name="AuthorizationSaveRes" sheetId="8" r:id="rId8"/>
-    <sheet name="AuthorizationSendAuths2" sheetId="9" r:id="rId9"/>
-    <sheet name="authz3" sheetId="10" r:id="rId10"/>
-    <sheet name="AuthorizationSaveResponseAuthz" sheetId="11" r:id="rId11"/>
-    <sheet name="AuthorizationApproved" sheetId="12" r:id="rId12"/>
+    <sheet name="AuthorizationResponseAuthz1" sheetId="7" r:id="rId7"/>
+    <sheet name="AuthorizationResponseAuthz2" sheetId="13" r:id="rId8"/>
+    <sheet name="AuthorizationSaveRes" sheetId="8" r:id="rId9"/>
+    <sheet name="AuthorizationSendAuths2" sheetId="9" r:id="rId10"/>
+    <sheet name="authz3" sheetId="10" r:id="rId11"/>
+    <sheet name="authz4" sheetId="14" r:id="rId12"/>
+    <sheet name="AuthorizationSaveResponseAuthz" sheetId="11" r:id="rId13"/>
+    <sheet name="AuthorizationApproved" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -108,9 +110,6 @@
     <t>Select Assign to</t>
   </si>
   <si>
-    <t>//md-virtual-repeat-container[@class="md-autocomplete-suggestions-container md-whiteframe-z1 md-virtual-repeat-container md-orient-vertical md-cs-content-theme-theme "]/div/div[2]/ul/li[1]</t>
-  </si>
-  <si>
     <t>Click Assign button</t>
   </si>
   <si>
@@ -268,6 +267,15 @@
   </si>
   <si>
     <t>//button[@ng-click="vm.closeEntry(exchange, $event)"]</t>
+  </si>
+  <si>
+    <t>//md-virtual-repeat-container[@class="md-autocomplete-suggestions-container md-whiteframe-z1 md-virtual-repeat-container md-orient-vertical md-cs-content-theme-theme"]/div/div[2]/ul/li[1]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[1]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu//md-option[1]</t>
   </si>
 </sst>
 </file>
@@ -316,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -334,6 +342,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -817,30 +835,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="66" customHeight="1">
+    <row r="9" spans="1:8" ht="37.5" customHeight="1">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="66" customHeight="1">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>29</v>
+      <c r="B10" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -849,28 +872,47 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="31.5" customHeight="1">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="G11">
-        <v>3</v>
-      </c>
-    </row>
+      <c r="D12" s="4"/>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" ht="11.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -878,15 +920,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60">
@@ -915,7 +957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="75">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -934,13 +976,12 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="75">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
@@ -956,17 +997,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="112.5" customHeight="1">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="4"/>
       <c r="E4">
         <v>1</v>
       </c>
@@ -977,54 +1018,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="54.75" customHeight="1">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="51" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="36.75" customHeight="1">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4"/>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="101.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1037,64 +1078,77 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="66.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="100.5" customHeight="1">
       <c r="A9" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="G9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="409.5">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
+      <c r="D11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1103,10 +1157,342 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="52.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="60">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="30">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="112.5" customHeight="1">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="54.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="51" customHeight="1">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="101.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="66.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="150">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10">
+        <v>3</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1162,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="75">
+    <row r="3" spans="1:8" ht="45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1184,10 +1570,10 @@
     </row>
     <row r="4" spans="1:8" ht="75.75" customHeight="1">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1203,12 +1589,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="90">
+    <row r="5" spans="1:8" ht="45">
       <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1224,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="90">
+    <row r="6" spans="1:8" ht="45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1250,7 +1636,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1268,10 +1654,10 @@
     </row>
     <row r="8" spans="1:8" ht="55.5" customHeight="1">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1287,15 +1673,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
       </c>
       <c r="D9" s="6"/>
       <c r="G9">
@@ -1304,10 +1690,10 @@
     </row>
     <row r="10" spans="1:8" ht="68.25" customHeight="1">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -1324,10 +1710,10 @@
     </row>
     <row r="11" spans="1:8" ht="168" customHeight="1">
       <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -1344,10 +1730,10 @@
     </row>
     <row r="12" spans="1:8" ht="41.25" customHeight="1">
       <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -1364,13 +1750,13 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
         <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1381,7 +1767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -1396,7 +1782,7 @@
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="75">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1464,10 +1850,10 @@
     </row>
     <row r="4" spans="1:8" ht="82.5" customHeight="1">
       <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1487,7 +1873,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1527,7 +1913,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
@@ -1546,10 +1932,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1566,13 +1952,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1580,10 +1966,10 @@
     </row>
     <row r="10" spans="1:8" ht="47.25" customHeight="1">
       <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -1600,10 +1986,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -1620,13 +2006,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1654,7 +2040,7 @@
     <col min="8" max="8" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1785,10 +2171,10 @@
     </row>
     <row r="7" spans="1:8" ht="30">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1806,13 +2192,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
       </c>
       <c r="D8" s="4"/>
       <c r="G8">
@@ -1970,10 +2356,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1990,13 +2376,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -2004,10 +2390,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -2024,10 +2410,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -2044,13 +2430,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2060,10 +2446,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H14"/>
+      <selection sqref="A1:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2141,10 +2527,10 @@
     </row>
     <row r="4" spans="1:8" ht="60.75" customHeight="1">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -2162,10 +2548,10 @@
     </row>
     <row r="5" spans="1:8" ht="42" customHeight="1">
       <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -2192,7 +2578,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2209,7 +2595,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -2227,10 +2613,10 @@
     </row>
     <row r="8" spans="1:8" ht="39" customHeight="1">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -2248,25 +2634,25 @@
     </row>
     <row r="9" spans="1:8" ht="37.5" customHeight="1">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
       </c>
       <c r="D9" s="6"/>
       <c r="G9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="409.5">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -2281,65 +2667,139 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="105">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
       </c>
       <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="60">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="105">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="45">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="3"/>
+      <c r="G17">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2350,18 +2810,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
     <col min="2" max="2" width="39.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2408,7 +2869,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="75">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2430,10 +2891,10 @@
     </row>
     <row r="4" spans="1:8" ht="75" customHeight="1">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -2449,12 +2910,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="90">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -2470,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="90">
+    <row r="6" spans="1:8" ht="30">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2481,7 +2942,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2498,7 +2959,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -2516,10 +2977,10 @@
     </row>
     <row r="8" spans="1:8" ht="51" customHeight="1">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -2535,15 +2996,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
       </c>
       <c r="D9" s="6"/>
       <c r="G9">
@@ -2552,10 +3013,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
         <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -2572,10 +3033,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
         <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -2592,10 +3053,10 @@
     </row>
     <row r="12" spans="1:8" ht="60.75" customHeight="1">
       <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -2612,10 +3073,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
         <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -2632,10 +3093,10 @@
     </row>
     <row r="14" spans="1:8" ht="74.25" customHeight="1">
       <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -2652,10 +3113,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
         <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -2672,10 +3133,10 @@
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -2692,13 +3153,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -2748,7 +3209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="75">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2769,7 +3230,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="75">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2791,10 +3252,10 @@
     </row>
     <row r="4" spans="1:8" ht="60.75" customHeight="1">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -2812,10 +3273,10 @@
     </row>
     <row r="5" spans="1:8" ht="50.25" customHeight="1">
       <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -2842,7 +3303,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2859,7 +3320,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -2877,10 +3338,10 @@
     </row>
     <row r="8" spans="1:8" ht="48.75" customHeight="1">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -2896,93 +3357,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
       </c>
       <c r="D9" s="6"/>
       <c r="G9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="409.5">
+    <row r="10" spans="1:8" ht="75">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30">
+      <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="105">
-      <c r="A11" t="s">
+      <c r="B11" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
         <v>53</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="105">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>55</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="45">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
       <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2998,14 +3459,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H13"/>
+      <selection sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="51.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3035,7 +3497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="75">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3054,8 +3516,9 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="75">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3075,12 +3538,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="72" customHeight="1">
+    <row r="4" spans="1:8" ht="48" customHeight="1">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -3096,12 +3559,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="90">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -3117,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="90">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3143,7 +3606,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -3161,10 +3624,10 @@
     </row>
     <row r="8" spans="1:8" ht="60" customHeight="1">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -3180,28 +3643,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
       </c>
       <c r="D9" s="6"/>
       <c r="G9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="66" customHeight="1">
+    <row r="10" spans="1:8" ht="106.5" customHeight="1">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -3212,61 +3675,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="74.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="75">
-      <c r="A12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3276,9 +3685,109 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" style="3"/>
+    <col min="2" max="2" width="58.7109375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="23.5703125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="46.5" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -3313,7 +3822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="75">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3334,7 +3843,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="75">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3356,10 +3865,10 @@
     </row>
     <row r="4" spans="1:8" ht="62.25" customHeight="1">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -3375,12 +3884,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="90">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -3422,7 +3931,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -3440,10 +3949,10 @@
     </row>
     <row r="8" spans="1:8" ht="36.75" customHeight="1">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -3459,15 +3968,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
       </c>
       <c r="D9" s="6"/>
       <c r="G9">
@@ -3476,10 +3985,10 @@
     </row>
     <row r="10" spans="1:8" ht="64.5" customHeight="1">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -3496,10 +4005,10 @@
     </row>
     <row r="11" spans="1:8" ht="72" customHeight="1">
       <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -3516,10 +4025,10 @@
     </row>
     <row r="12" spans="1:8" ht="48" customHeight="1">
       <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -3536,254 +4045,17 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
       <c r="G13">
         <v>3</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="60">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="G8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="100.5" customHeight="1">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -15,19 +15,18 @@
     <sheet name="AuthorizationAddComment" sheetId="6" r:id="rId6"/>
     <sheet name="AuthorizationResponseAuthz1" sheetId="7" r:id="rId7"/>
     <sheet name="AuthorizationResponseAuthz2" sheetId="13" r:id="rId8"/>
-    <sheet name="AuthorizationSaveRes" sheetId="8" r:id="rId9"/>
-    <sheet name="AuthorizationSendAuths2" sheetId="9" r:id="rId10"/>
-    <sheet name="authz3" sheetId="10" r:id="rId11"/>
-    <sheet name="authz4" sheetId="14" r:id="rId12"/>
-    <sheet name="AuthorizationSaveResponseAuthz" sheetId="11" r:id="rId13"/>
-    <sheet name="AuthorizationApproved" sheetId="12" r:id="rId14"/>
+    <sheet name="AuthorizationSendAuths2" sheetId="9" r:id="rId9"/>
+    <sheet name="authz3" sheetId="10" r:id="rId10"/>
+    <sheet name="authz4" sheetId="14" r:id="rId11"/>
+    <sheet name="AuthorizationSaveResponseAuthz" sheetId="11" r:id="rId12"/>
+    <sheet name="AuthorizationApproved" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -276,6 +275,12 @@
   </si>
   <si>
     <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu//md-option[1]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.receiveAuthResponse(exchange, auth, $event)" and @aria-hidden="false"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -647,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -912,250 +917,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" ht="11.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="60">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="G8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="100.5" customHeight="1">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -1194,7 +961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +982,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="30">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1355,7 +1122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="150">
+    <row r="10" spans="1:8" ht="75">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1380,12 +1147,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1482,21 +1249,167 @@
       </c>
       <c r="H4" s="10"/>
     </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" customWidth="1"/>
@@ -1767,7 +1680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -2216,7 +2129,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2449,7 +2362,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2758,7 +2671,7 @@
         <v>17</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2811,7 +2724,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3122,7 +3035,7 @@
         <v>17</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -3172,14 +3085,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3449,8 +3363,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="3"/>
+    <row r="14" spans="1:8" ht="45">
+      <c r="B14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3459,10 +3408,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3501,7 +3450,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
@@ -3522,7 +3471,7 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
@@ -3538,17 +3487,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="48" customHeight="1">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
       <c r="E4">
         <v>1</v>
       </c>
@@ -3561,120 +3509,266 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="48" customHeight="1">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" customHeight="1">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="D14" s="4"/>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A7" t="s">
+    <row r="15" spans="1:8" ht="106.5" customHeight="1">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="60" customHeight="1">
-      <c r="A8" t="s">
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="G9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="106.5" customHeight="1">
-      <c r="A10" t="s">
+      <c r="D17" s="6"/>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="75">
+      <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>5</v>
       </c>
     </row>
@@ -3685,10 +3779,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15"/>
@@ -3724,32 +3818,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="46.5" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
@@ -3766,15 +3850,35 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <v>3</v>
       </c>
     </row>
@@ -3785,15 +3889,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60">
@@ -3822,7 +3927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3841,13 +3946,12 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
@@ -3863,17 +3967,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="62.25" customHeight="1">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="4"/>
       <c r="E4">
         <v>1</v>
       </c>
@@ -3886,52 +3990,52 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="34.5" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="36.75" customHeight="1">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4"/>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="42.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -3944,118 +4048,77 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="36.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="100.5" customHeight="1">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="G9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="72" customHeight="1">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="48" customHeight="1">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
+      <c r="D11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -1149,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1248,151 +1248,6 @@
         <v>3</v>
       </c>
       <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1684,12 +1539,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
@@ -1839,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -1874,7 +1730,7 @@
         <v>31</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="47.25" customHeight="1">
@@ -1928,7 +1784,7 @@
         <v>31</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3781,7 +3637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD24"/>
     </sheetView>
   </sheetViews>
@@ -3891,8 +3747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4119,6 +3975,9 @@
         <v>31</v>
       </c>
       <c r="D11" s="6"/>
+      <c r="G11">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1539,7 +1539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -3266,8 +3266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3266,7 +3266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="121">
   <si>
     <t>Name</t>
   </si>
@@ -281,6 +281,114 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Skip on error</t>
+  </si>
+  <si>
+    <t>Error Notice</t>
+  </si>
+  <si>
+    <t>Fail to Proceed to Operation</t>
+  </si>
+  <si>
+    <t>fail to proceed to authorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fail to click Wait for Response </t>
+  </si>
+  <si>
+    <t>Fail to click Search</t>
+  </si>
+  <si>
+    <t>Fail to input Patient</t>
+  </si>
+  <si>
+    <t>Fail to click first patient</t>
+  </si>
+  <si>
+    <t>fail to click assigned to me</t>
+  </si>
+  <si>
+    <t>fail to verify assigned to me</t>
+  </si>
+  <si>
+    <t>fail to click add correction</t>
+  </si>
+  <si>
+    <t>fail to click clinician type</t>
+  </si>
+  <si>
+    <t>fail select clinician</t>
+  </si>
+  <si>
+    <t>Fail to click increase/deasese</t>
+  </si>
+  <si>
+    <t>Fail to click frequency</t>
+  </si>
+  <si>
+    <t>Fail to input number</t>
+  </si>
+  <si>
+    <t>Fail to click add button</t>
+  </si>
+  <si>
+    <t>fail to verify add button</t>
+  </si>
+  <si>
+    <t>Fail to click assigned to me</t>
+  </si>
+  <si>
+    <t>Fail to click comment tab</t>
+  </si>
+  <si>
+    <t>Fail to click Message input</t>
+  </si>
+  <si>
+    <t>fail to click message input</t>
+  </si>
+  <si>
+    <t>fail to verify input</t>
+  </si>
+  <si>
+    <t>fail to click auth response</t>
+  </si>
+  <si>
+    <t>fail to click</t>
+  </si>
+  <si>
+    <t>Fail to Verify Assigned to me</t>
+  </si>
+  <si>
+    <t>Fail to click Send Authz Req</t>
+  </si>
+  <si>
+    <t>Fail to Click Confirm</t>
+  </si>
+  <si>
+    <t>Fail to Verify Confirm</t>
+  </si>
+  <si>
+    <t>Fail to Click Wait for response tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail to input </t>
+  </si>
+  <si>
+    <t>fail to Select</t>
+  </si>
+  <si>
+    <t>fail to Click Comment Tab</t>
+  </si>
+  <si>
+    <t>fail to click Save authz Response</t>
+  </si>
+  <si>
+    <t>fail to click confirm authz</t>
+  </si>
+  <si>
+    <t>fail to verify Confirm</t>
   </si>
 </sst>
 </file>
@@ -329,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -357,6 +465,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -667,7 +781,7 @@
     <col min="8" max="8" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,8 +806,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1">
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -713,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -733,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -754,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -775,7 +895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="37.5" customHeight="1">
+    <row r="6" spans="1:10" ht="37.5" customHeight="1">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -796,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="34.5" customHeight="1">
+    <row r="7" spans="1:10" ht="34.5" customHeight="1">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -817,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="37.5" customHeight="1">
+    <row r="8" spans="1:10" ht="37.5" customHeight="1">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -840,7 +960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="37.5" customHeight="1">
+    <row r="9" spans="1:10" ht="37.5" customHeight="1">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -863,7 +983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="66" customHeight="1">
+    <row r="10" spans="1:10" ht="66" customHeight="1">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -881,7 +1001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="31.5" customHeight="1">
+    <row r="11" spans="1:10" ht="31.5" customHeight="1">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -902,7 +1022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -924,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -935,7 +1055,7 @@
     <col min="2" max="2" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60">
+    <row r="1" spans="1:10" ht="60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,8 +1080,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -982,7 +1108,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1002,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="112.5" customHeight="1">
+    <row r="4" spans="1:10" ht="112.5" customHeight="1">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1023,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="54.75" customHeight="1">
+    <row r="5" spans="1:10" ht="54.75" customHeight="1">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1044,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="51" customHeight="1">
+    <row r="6" spans="1:10" ht="51" customHeight="1">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1065,7 +1191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="101.25" customHeight="1">
+    <row r="7" spans="1:10" ht="101.25" customHeight="1">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1086,7 +1212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="66.75" customHeight="1">
+    <row r="8" spans="1:10" ht="66.75" customHeight="1">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1107,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1122,7 +1248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="75">
+    <row r="10" spans="1:10" ht="75">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1149,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="J1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,7 +1287,7 @@
     <col min="2" max="2" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11" ht="30">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1186,8 +1312,14 @@
       <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="10" t="s">
         <v>70</v>
       </c>
@@ -1209,7 +1341,7 @@
       </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11">
       <c r="A3" s="10" t="s">
         <v>72</v>
       </c>
@@ -1231,7 +1363,7 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4" s="10" t="s">
         <v>74</v>
       </c>
@@ -1256,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="I1" sqref="I1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1270,7 +1402,7 @@
     <col min="7" max="7" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39" customHeight="1">
+    <row r="1" spans="1:10" ht="39" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1295,8 +1427,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="43.5" customHeight="1">
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="43.5" customHeight="1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1316,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
+    <row r="3" spans="1:10" ht="45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1336,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="75.75" customHeight="1">
+    <row r="4" spans="1:10" ht="75.75" customHeight="1">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1357,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45">
+    <row r="5" spans="1:10" ht="45">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1378,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45">
+    <row r="6" spans="1:10" ht="45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1399,7 +1537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="96" customHeight="1">
+    <row r="7" spans="1:10" ht="96" customHeight="1">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1420,7 +1558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="55.5" customHeight="1">
+    <row r="8" spans="1:10" ht="55.5" customHeight="1">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1441,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1456,7 +1594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="68.25" customHeight="1">
+    <row r="10" spans="1:10" ht="68.25" customHeight="1">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1476,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="168" customHeight="1">
+    <row r="11" spans="1:10" ht="168" customHeight="1">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -1496,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="41.25" customHeight="1">
+    <row r="12" spans="1:10" ht="41.25" customHeight="1">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1516,7 +1654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -1537,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1551,7 +1689,7 @@
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1576,8 +1714,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="40.5" customHeight="1">
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="40.5" customHeight="1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1597,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30">
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1617,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="82.5" customHeight="1">
+    <row r="4" spans="1:10" ht="82.5" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -1637,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1657,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1677,7 +1821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="69.75" customHeight="1">
+    <row r="7" spans="1:10" ht="69.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1699,7 +1843,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1719,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1733,7 +1877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="47.25" customHeight="1">
+    <row r="10" spans="1:10" ht="47.25" customHeight="1">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -1753,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1773,7 +1917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -1794,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I1" sqref="I1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1809,7 +1953,7 @@
     <col min="8" max="8" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1834,8 +1978,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1855,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1875,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1896,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1917,7 +2067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45">
+    <row r="6" spans="1:10" ht="45">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1938,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30">
+    <row r="7" spans="1:10" ht="30">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1959,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1982,10 +2132,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G11"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1997,7 +2147,7 @@
     <col min="8" max="8" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2022,8 +2172,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2043,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2063,7 +2219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2083,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2103,7 +2259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2123,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -2143,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -2157,7 +2313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2177,7 +2333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2197,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2215,10 +2371,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I1" sqref="I1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2227,7 +2383,7 @@
     <col min="2" max="2" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60">
+    <row r="1" spans="1:10" ht="60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2252,8 +2408,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="36.75" customHeight="1">
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2274,7 +2436,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="39" customHeight="1">
+    <row r="3" spans="1:10" ht="39" customHeight="1">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2294,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="60.75" customHeight="1">
+    <row r="4" spans="1:10" ht="60.75" customHeight="1">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2315,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="42" customHeight="1">
+    <row r="5" spans="1:10" ht="42" customHeight="1">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -2336,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1">
+    <row r="6" spans="1:10" ht="30" customHeight="1">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2359,7 +2521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="59.25" customHeight="1">
+    <row r="7" spans="1:10" ht="59.25" customHeight="1">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2380,7 +2542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="39" customHeight="1">
+    <row r="8" spans="1:10" ht="39" customHeight="1">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2401,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="37.5" customHeight="1">
+    <row r="9" spans="1:10" ht="37.5" customHeight="1">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2416,7 +2578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -2436,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -2456,7 +2618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="60">
+    <row r="12" spans="1:10" ht="60">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -2476,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -2496,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45">
+    <row r="14" spans="1:10" ht="45">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -2516,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -2536,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -2577,21 +2739,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2616,344 +2783,400 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="42.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="30">
-      <c r="A3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="75" customHeight="1">
-      <c r="A4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="75" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30">
-      <c r="A5" t="s">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
+      <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30">
-      <c r="A6" t="s">
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="63.75" customHeight="1">
-      <c r="A7" t="s">
+      <c r="J6" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="63.75" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="51" customHeight="1">
-      <c r="A8" t="s">
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="51" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="J8" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30">
+      <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="G9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="D9" s="12"/>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45">
+      <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30">
+      <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A12" t="s">
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="60.75" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30">
+      <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="74.25" customHeight="1">
-      <c r="A14" t="s">
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="74.25" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30">
+      <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A16" t="s">
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30">
+      <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G17">
-        <v>3</v>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60">
+    <row r="1" spans="1:10" ht="60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2978,8 +3201,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="75">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2999,8 +3228,11 @@
         <v>1</v>
       </c>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="75">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3019,8 +3251,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="60.75" customHeight="1">
+      <c r="J3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="60.75" customHeight="1">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -3040,8 +3275,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="50.25" customHeight="1">
+      <c r="J4" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="50.25" customHeight="1">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -3061,8 +3299,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="45.75" customHeight="1">
+      <c r="J5" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45.75" customHeight="1">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3084,8 +3325,11 @@
       <c r="H6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="65.25" customHeight="1">
+      <c r="J6" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="65.25" customHeight="1">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3105,8 +3349,11 @@
       <c r="G7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="48.75" customHeight="1">
+      <c r="J7" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="48.75" customHeight="1">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -3126,8 +3373,11 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="J8" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -3141,8 +3391,11 @@
       <c r="G9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="75">
+      <c r="J9" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="75">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -3161,8 +3414,11 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="30">
+      <c r="J10" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -3181,8 +3437,11 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="30">
+      <c r="J11" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -3204,8 +3463,11 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="J12" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -3218,8 +3480,11 @@
       <c r="G13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="45">
+      <c r="J13" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45">
       <c r="B14" s="3" t="s">
         <v>83</v>
       </c>
@@ -3238,8 +3503,11 @@
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="J14" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="B15" s="3" t="s">
         <v>73</v>
       </c>
@@ -3255,6 +3523,9 @@
       </c>
       <c r="G15" s="3">
         <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3264,19 +3535,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60">
+    <row r="1" spans="1:10" ht="60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3301,8 +3574,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3322,8 +3601,11 @@
         <v>1</v>
       </c>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3342,8 +3624,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3362,8 +3647,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3382,8 +3670,11 @@
       <c r="H5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3402,8 +3693,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -3422,8 +3716,11 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -3436,8 +3733,11 @@
       <c r="G8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="48" customHeight="1">
+      <c r="J8" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="48" customHeight="1">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -3456,8 +3756,11 @@
       <c r="G9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="J9" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -3476,8 +3779,11 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="J10" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -3487,8 +3793,11 @@
       <c r="C11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="35.25" customHeight="1">
+      <c r="J11" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="35.25" customHeight="1">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -3508,8 +3817,11 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="60" customHeight="1">
+      <c r="J12" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60" customHeight="1">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3841,11 @@
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="J13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3550,8 +3865,11 @@
       <c r="H14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="106.5" customHeight="1">
+      <c r="J14" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="106.5" customHeight="1">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3571,8 +3889,11 @@
       <c r="G15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="J15" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -3592,8 +3913,11 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="J16" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -3607,8 +3931,11 @@
       <c r="G17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="75">
+      <c r="J17" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="75">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -3626,6 +3953,9 @@
       </c>
       <c r="G18">
         <v>5</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3635,10 +3965,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD24"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15"/>
@@ -3648,7 +3978,7 @@
     <col min="3" max="16384" width="23.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3673,8 +4003,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3684,7 +4020,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="46.5" customHeight="1">
+    <row r="3" spans="1:10" ht="46.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>70</v>
       </c>
@@ -3703,8 +4039,11 @@
       <c r="G3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>72</v>
       </c>
@@ -3723,8 +4062,11 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>74</v>
       </c>
@@ -3736,6 +4078,9 @@
       </c>
       <c r="G5" s="3">
         <v>3</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3745,19 +4090,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60">
+    <row r="1" spans="1:10" ht="60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3782,8 +4129,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="27" customHeight="1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3802,8 +4155,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3822,8 +4178,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3843,8 +4202,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3864,8 +4226,11 @@
       <c r="H5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="36.75" customHeight="1">
+      <c r="J5" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="36.75" customHeight="1">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3885,8 +4250,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -3906,8 +4274,11 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -3922,7 +4293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="100.5" customHeight="1">
+    <row r="9" spans="1:10" ht="100.5" customHeight="1">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -3943,7 +4314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -3964,7 +4335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>41</v>
       </c>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -389,6 +389,78 @@
   </si>
   <si>
     <t>fail to verify Confirm</t>
+  </si>
+  <si>
+    <t>fail to verify Assigend to me</t>
+  </si>
+  <si>
+    <t>Fail to click Send Auth</t>
+  </si>
+  <si>
+    <t>fail to Click Confirm</t>
+  </si>
+  <si>
+    <t>fail to proceed to Response tab</t>
+  </si>
+  <si>
+    <t>Fail to Click Search</t>
+  </si>
+  <si>
+    <t>Fail to fill Search</t>
+  </si>
+  <si>
+    <t>Fail to Click  First Patient</t>
+  </si>
+  <si>
+    <t>Fail to Click Assigned to me</t>
+  </si>
+  <si>
+    <t>Fail to Click Comment tab</t>
+  </si>
+  <si>
+    <t>fail to Click Save authz</t>
+  </si>
+  <si>
+    <t>Fail to Click Confirm Authz</t>
+  </si>
+  <si>
+    <t>Fail to proceed to Response tab</t>
+  </si>
+  <si>
+    <t>Fail to fill Search bar</t>
+  </si>
+  <si>
+    <t>Fail to Select Patient</t>
+  </si>
+  <si>
+    <t>Fail to click assigend to me</t>
+  </si>
+  <si>
+    <t>Fail to click Comment Tab</t>
+  </si>
+  <si>
+    <t>Fail to click Save authz Responose</t>
+  </si>
+  <si>
+    <t>Fail to click Confirm Authz</t>
+  </si>
+  <si>
+    <t>fail to proceed to Approval Tab</t>
+  </si>
+  <si>
+    <t>Fail to Fill Search Bar</t>
+  </si>
+  <si>
+    <t>Fail to Select First Patient</t>
+  </si>
+  <si>
+    <t>Fail to Click Assigned To me</t>
+  </si>
+  <si>
+    <t>Fail to Click Close Authz</t>
+  </si>
+  <si>
+    <t>Fail to Confirm</t>
   </si>
 </sst>
 </file>
@@ -437,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -456,20 +528,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1046,13 +1111,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="52.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="60">
@@ -1107,8 +1178,11 @@
         <v>1</v>
       </c>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1126,6 +1200,9 @@
       </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="112.5" customHeight="1">
@@ -1148,6 +1225,9 @@
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="54.75" customHeight="1">
       <c r="A5" t="s">
@@ -1169,6 +1249,9 @@
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="51" customHeight="1">
       <c r="A6" t="s">
@@ -1190,6 +1273,9 @@
       <c r="H6" t="s">
         <v>18</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="101.25" customHeight="1">
       <c r="A7" t="s">
@@ -1211,6 +1297,9 @@
       <c r="G7">
         <v>3</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="66.75" customHeight="1">
       <c r="A8" t="s">
@@ -1232,6 +1321,9 @@
       <c r="G8">
         <v>0</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
@@ -1247,6 +1339,9 @@
       <c r="G9">
         <v>3</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="75">
       <c r="A10" t="s">
@@ -1266,6 +1361,9 @@
       </c>
       <c r="G10">
         <v>5</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1275,111 +1373,119 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="18.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" ht="30">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="J1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:10" ht="60">
+      <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10">
-        <v>1</v>
-      </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="10" t="s">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
+      <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="10" t="s">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10">
-        <v>3</v>
-      </c>
-      <c r="H4" s="10"/>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1391,7 +1497,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1"/>
+      <selection activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1400,6 +1506,8 @@
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1">
@@ -1453,6 +1561,9 @@
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="45">
       <c r="A3" t="s">
@@ -1473,6 +1584,9 @@
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="75.75" customHeight="1">
       <c r="A4" t="s">
@@ -1494,6 +1608,9 @@
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="45">
       <c r="A5" t="s">
@@ -1515,6 +1632,9 @@
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="45">
       <c r="A6" t="s">
@@ -1536,6 +1656,9 @@
       <c r="H6" t="s">
         <v>18</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="96" customHeight="1">
       <c r="A7" t="s">
@@ -1557,6 +1680,9 @@
       <c r="G7">
         <v>3</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="55.5" customHeight="1">
       <c r="A8" t="s">
@@ -1578,8 +1704,11 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1592,6 +1721,9 @@
       <c r="D9" s="6"/>
       <c r="G9">
         <v>3</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="68.25" customHeight="1">
@@ -1613,6 +1745,9 @@
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="J10" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="168" customHeight="1">
       <c r="A11" t="s">
@@ -1633,6 +1768,9 @@
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="J11" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="41.25" customHeight="1">
       <c r="A12" t="s">
@@ -1653,6 +1791,9 @@
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="J12" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
@@ -1667,9 +1808,13 @@
       <c r="G13">
         <v>3</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1677,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1687,6 +1832,8 @@
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30">
@@ -1740,6 +1887,9 @@
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
@@ -1760,6 +1910,9 @@
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="82.5" customHeight="1">
       <c r="A4" t="s">
@@ -1780,6 +1933,9 @@
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -1800,8 +1956,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1819,6 +1978,9 @@
       </c>
       <c r="H6" t="s">
         <v>18</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="69.75" customHeight="1">
@@ -1842,8 +2004,11 @@
         <v>1</v>
       </c>
       <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1862,8 +2027,11 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1875,6 +2043,9 @@
       </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="47.25" customHeight="1">
@@ -1896,6 +2067,9 @@
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="J10" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
@@ -1916,8 +2090,11 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -1929,6 +2106,9 @@
       </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2846,7 +3026,7 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="1">
         <v>1</v>
       </c>
@@ -2870,7 +3050,7 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="1">
         <v>1</v>
       </c>
@@ -2894,7 +3074,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="1">
@@ -2920,7 +3100,7 @@
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="1">
         <v>1</v>
       </c>
@@ -2944,7 +3124,7 @@
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="1">
         <v>1</v>
       </c>
@@ -2968,7 +3148,7 @@
       <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="8"/>
       <c r="G9" s="1">
         <v>3</v>
       </c>
@@ -3208,7 +3388,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="75">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3232,7 +3412,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="75">
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4092,8 +4272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4278,7 +4458,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -4291,6 +4471,9 @@
       <c r="D8" s="6"/>
       <c r="G8">
         <v>3</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="100.5" customHeight="1">
@@ -4313,8 +4496,11 @@
       <c r="G9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -4334,8 +4520,11 @@
       <c r="G10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -4348,6 +4537,9 @@
       <c r="D11" s="6"/>
       <c r="G11">
         <v>3</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -1126,7 +1126,7 @@
     <col min="10" max="10" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="60">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1823,7 +1823,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2042,7 +2042,7 @@
         <v>31</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>110</v>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -1820,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2031,83 +2031,66 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30">
+    <row r="9" spans="1:10" ht="47.25" customHeight="1">
       <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="47.25" customHeight="1">
-      <c r="A10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30">
-      <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
         <v>113</v>
       </c>
     </row>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -1820,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2075,23 +2075,6 @@
       </c>
       <c r="J10" s="1" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="148">
   <si>
     <t>Name</t>
   </si>
@@ -52,21 +52,12 @@
     <t>Default Value</t>
   </si>
   <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>(//button[@aria-label="Operations"])[1]</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
     <t>Authorization</t>
   </si>
   <si>
-    <t>(//button[@aria-label="Authorization"])[1]</t>
-  </si>
-  <si>
     <t>Search</t>
   </si>
   <si>
@@ -289,12 +280,6 @@
     <t>Error Notice</t>
   </si>
   <si>
-    <t>Fail to Proceed to Operation</t>
-  </si>
-  <si>
-    <t>fail to proceed to authorization</t>
-  </si>
-  <si>
     <t xml:space="preserve">fail to click Wait for Response </t>
   </si>
   <si>
@@ -461,6 +446,30 @@
   </si>
   <si>
     <t>Fail to Confirm</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.go(entry.state)" and @aria-label="Clinical Support"]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.go(entry.state)" and @aria-label="Administration"]</t>
+  </si>
+  <si>
+    <t>Clinician Support</t>
+  </si>
+  <si>
+    <t>Failed to click Admin</t>
+  </si>
+  <si>
+    <t>Failed to click Clinician Support</t>
+  </si>
+  <si>
+    <t>Failed to Click Authz</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Authorization"])[2]</t>
   </si>
 </sst>
 </file>
@@ -831,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -844,6 +853,7 @@
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" customWidth="1"/>
     <col min="8" max="8" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
@@ -872,21 +882,21 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -897,16 +907,19 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" customHeight="1">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -916,19 +929,21 @@
       </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>8</v>
+      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -937,59 +952,62 @@
       </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7">
@@ -1002,19 +1020,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="37.5" customHeight="1">
+    <row r="8" spans="1:10" ht="34.5" customHeight="1">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8">
         <v>1</v>
       </c>
@@ -1022,83 +1038,106 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="37.5" customHeight="1">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="66" customHeight="1">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="66" customHeight="1">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
+      <c r="B11" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="31.5" customHeight="1">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D12" s="4"/>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
       <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="G13">
         <v>3</v>
       </c>
     </row>
@@ -1109,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1152,21 +1191,21 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1177,20 +1216,19 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>87</v>
+      <c r="J2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1201,21 +1239,20 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="112.5" customHeight="1">
+      <c r="J3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="29.25" customHeight="1">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>8</v>
+      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -1225,19 +1262,16 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="54.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:10" ht="101.25" customHeight="1">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5">
@@ -1250,66 +1284,66 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="51" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="66.75" customHeight="1">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="J7" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="101.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="66.75" customHeight="1">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8">
@@ -1319,51 +1353,75 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D9" s="6"/>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
       <c r="G9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="75">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D10" s="6"/>
       <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="75">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>5</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>129</v>
+      <c r="J11" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1418,21 +1476,21 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="60">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1444,18 +1502,18 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1467,24 +1525,24 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J3"/>
+      <selection activeCell="A2" sqref="A2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1536,69 +1594,68 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.5" customHeight="1">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="60">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="42.75" customHeight="1">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="45">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>8</v>
+      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -1608,19 +1665,16 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="45">
+    </row>
+    <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5">
@@ -1633,66 +1687,66 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="55.5" customHeight="1">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="J7" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="68.25" customHeight="1">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="96" customHeight="1">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="55.5" customHeight="1">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8">
@@ -1702,114 +1756,138 @@
         <v>1</v>
       </c>
       <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="168" customHeight="1">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="G9">
-        <v>3</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="68.25" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="41.25" customHeight="1">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D10" s="6"/>
       <c r="G10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="168" customHeight="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="180">
       <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="150">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>71</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>113</v>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1820,10 +1898,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1862,219 +1940,239 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="40.5" customHeight="1">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="63" customHeight="1">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="75" customHeight="1">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="69.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="47.25" customHeight="1">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="82.5" customHeight="1">
-      <c r="A4" t="s">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="J8" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45">
+      <c r="A10" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="69.75" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="J7" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="47.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2084,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2125,21 +2223,21 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2150,16 +2248,19 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2169,19 +2270,21 @@
       </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>8</v>
+      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -2194,55 +2297,55 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="45">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7">
@@ -2255,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2263,10 +2366,31 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4"/>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
       <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="G9">
         <v>3</v>
       </c>
     </row>
@@ -2278,19 +2402,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30">
@@ -2319,21 +2444,21 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="45">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
+        <v>140</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2344,16 +2469,19 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="45">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2363,17 +2491,20 @@
       </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2387,53 +2518,53 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2442,38 +2573,38 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2481,13 +2612,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2496,18 +2627,38 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2517,16 +2668,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1"/>
+      <selection activeCell="A2" sqref="A2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="60">
@@ -2555,21 +2707,21 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2580,17 +2732,19 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="J2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="39" customHeight="1">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2601,18 +2755,20 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="60.75" customHeight="1">
+      <c r="J3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="42" customHeight="1">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>8</v>
+      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -2623,15 +2779,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="42" customHeight="1">
+    <row r="5" spans="1:10" ht="30" customHeight="1">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5">
@@ -2644,59 +2800,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
+    <row r="6" spans="1:10" ht="59.25" customHeight="1">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="39" customHeight="1">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="59.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="39" customHeight="1">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8">
@@ -2706,113 +2862,114 @@
         <v>1</v>
       </c>
       <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="G9">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D10" s="6"/>
       <c r="G10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="60">
-      <c r="A12" t="s">
+      <c r="B14" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2824,17 +2981,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="45">
       <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
@@ -2846,35 +3003,55 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="D16">
         <v>1</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
       </c>
       <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18">
         <v>3</v>
       </c>
     </row>
@@ -2885,10 +3062,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J8"/>
+      <selection activeCell="A2" sqref="A2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2930,91 +3107,97 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="75" customHeight="1">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30">
+      <c r="B4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:10" ht="63.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="1">
@@ -3027,68 +3210,68 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="51" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="J7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="51" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="1">
@@ -3098,206 +3281,230 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D9" s="8"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
       <c r="G9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="60.75" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="74.25" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="60">
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45">
-      <c r="A10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
+    <row r="16" spans="1:10" ht="30">
+      <c r="A16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30">
-      <c r="A11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="60.75" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30">
-      <c r="A13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="74.25" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30">
-      <c r="A15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>3</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
       </c>
       <c r="G17" s="1">
         <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3308,10 +3515,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J3"/>
+      <selection activeCell="A2" sqref="A2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3322,7 +3529,7 @@
     <col min="10" max="10" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="60">
+    <row r="1" spans="1:11" ht="60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3348,70 +3555,70 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="30">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="60.75" customHeight="1">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="60.75" customHeight="1">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>8</v>
+      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -3421,19 +3628,17 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="50.25" customHeight="1">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="65.25" customHeight="1">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5">
@@ -3446,68 +3651,68 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45.75" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="48.75" customHeight="1">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="J7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="45">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="65.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="48.75" customHeight="1">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8">
@@ -3517,161 +3722,185 @@
         <v>1</v>
       </c>
       <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J9" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="75">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="45">
+      <c r="B15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="75">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
+    <row r="16" spans="1:11">
+      <c r="B16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45">
-      <c r="B14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3681,10 +3910,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3721,21 +3950,21 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
+        <v>140</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3746,20 +3975,19 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>87</v>
+      <c r="J2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3770,88 +3998,85 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>88</v>
+      <c r="J3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="48" customHeight="1">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3860,122 +4085,121 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="35.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60" customHeight="1">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="48" customHeight="1">
-      <c r="A9" t="s">
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
+      <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30">
-      <c r="A10" t="s">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="106.5" customHeight="1">
+      <c r="A13" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="60" customHeight="1">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13">
@@ -3988,66 +4212,66 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="106.5" customHeight="1">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16">
@@ -4057,51 +4281,75 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D17" s="6"/>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
       <c r="G17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="75">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D18" s="6"/>
       <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="75">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>5</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>117</v>
+      <c r="J19" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4150,10 +4398,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4168,13 +4416,13 @@
     </row>
     <row r="3" spans="1:10" ht="46.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -4186,18 +4434,18 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -4209,24 +4457,24 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G5" s="3">
         <v>3</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4236,10 +4484,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J3"/>
+      <selection activeCell="A2" sqref="A2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4276,21 +4524,21 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -4301,19 +4549,19 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>87</v>
+      <c r="J2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -4324,93 +4572,89 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>88</v>
+      <c r="J3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30">
-      <c r="A5" t="s">
+      <c r="D6" s="4"/>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="J6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="100.5" customHeight="1">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7">
         <v>1</v>
       </c>
@@ -4418,63 +4662,63 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D8" s="6"/>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
       <c r="G8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="100.5" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30">
       <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="75">
       <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10">
@@ -4487,25 +4731,49 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D11" s="6"/>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -466,10 +466,7 @@
     <t>Failed to click Clinician Support</t>
   </si>
   <si>
-    <t>Failed to Click Authz</t>
-  </si>
-  <si>
-    <t>(//button[@aria-label="Authorization"])[2]</t>
+    <t>//button[@ng-click="vm.go(entry.state)" and @aria-label="Authorization"]</t>
   </si>
 </sst>
 </file>
@@ -843,7 +840,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -939,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -952,9 +949,6 @@
       </c>
       <c r="G4">
         <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1247,8 +1241,8 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>147</v>
+      <c r="B4" t="s">
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1434,7 +1428,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1555,7 +1549,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K4"/>
+      <selection activeCell="A2" sqref="A2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1650,8 +1644,8 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>147</v>
+      <c r="B4" t="s">
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1901,7 +1895,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A2" sqref="A2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1996,8 +1990,8 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>147</v>
+      <c r="B4" t="s">
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2185,7 +2179,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2280,7 +2274,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2405,7 +2399,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A2" sqref="A2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2450,7 +2444,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45">
+    <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -2473,7 +2467,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="45">
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -2501,7 +2495,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2763,8 +2757,8 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>147</v>
+      <c r="B4" t="s">
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3065,7 +3059,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K4"/>
+      <selection activeCell="A2" sqref="A2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3169,8 +3163,8 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>147</v>
+      <c r="B4" t="s">
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3613,8 +3607,8 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>147</v>
+      <c r="B4" t="s">
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3913,7 +3907,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K4"/>
+      <selection activeCell="A2" sqref="A2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4006,8 +4000,8 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>147</v>
+      <c r="B4" t="s">
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4487,7 +4481,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K4"/>
+      <selection activeCell="A2" sqref="A2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4580,8 +4574,8 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>147</v>
+      <c r="B4" t="s">
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -1895,7 +1895,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1905,7 +1905,7 @@
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30">

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -840,7 +840,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J4"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>144</v>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>145</v>
@@ -948,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J4"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>144</v>
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>145</v>
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="101.25" customHeight="1">
@@ -1428,7 +1428,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1549,7 +1549,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J4"/>
+      <selection activeCell="G4" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1611,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>144</v>
@@ -1634,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>145</v>
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
@@ -1895,7 +1895,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1957,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>144</v>
@@ -1980,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>145</v>
@@ -2003,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="69.75" customHeight="1">
@@ -2023,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>134</v>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>120</v>
@@ -2093,14 +2093,14 @@
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="3"/>
       <c r="J8" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>137</v>
@@ -2140,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>138</v>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>139</v>
@@ -2178,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G4" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>144</v>
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>145</v>
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2399,7 +2399,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J4"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2461,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>144</v>
@@ -2484,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>145</v>
@@ -2507,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2665,7 +2665,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J4"/>
+      <selection activeCell="G4" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2724,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>144</v>
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>145</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
@@ -2791,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="59.25" customHeight="1">
@@ -2812,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="39" customHeight="1">
@@ -3059,7 +3059,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J4"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3125,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -3151,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -3512,7 +3512,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J4"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3572,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>144</v>
@@ -3596,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>145</v>
@@ -3620,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -3907,7 +3907,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J4"/>
+      <selection activeCell="G4" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3967,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>144</v>
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>145</v>
@@ -4013,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4033,7 +4033,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>85</v>
@@ -4079,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>87</v>
@@ -4356,7 +4356,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15"/>
@@ -4481,7 +4481,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J4"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4541,7 +4541,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>144</v>
@@ -4564,7 +4564,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>145</v>
@@ -4587,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10">

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="150">
   <si>
     <t>Name</t>
   </si>
@@ -467,6 +467,15 @@
   </si>
   <si>
     <t>//button[@ng-click="vm.go(entry.state)" and @aria-label="Authorization"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.onlyMe"]</t>
+  </si>
+  <si>
+    <t>uncheck only my task</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.deAssign(exchange)" and @aria-hidden="false"]</t>
   </si>
 </sst>
 </file>
@@ -837,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -995,10 +1004,10 @@
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1014,12 +1023,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="34.5" customHeight="1">
+    <row r="8" spans="1:10" ht="37.5" customHeight="1">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1035,19 +1044,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="37.5" customHeight="1">
+    <row r="9" spans="1:10" ht="34.5" customHeight="1">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9">
         <v>1</v>
       </c>
@@ -1055,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="37.5" customHeight="1">
@@ -1081,30 +1088,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="66" customHeight="1">
+    <row r="11" spans="1:10" ht="37.5" customHeight="1">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="66" customHeight="1">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1113,25 +1125,43 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
       <c r="G12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="31.5" customHeight="1">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B14" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="G13">
+      <c r="D14" s="4"/>
+      <c r="G14">
         <v>3</v>
       </c>
     </row>
@@ -1142,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1306,59 +1336,52 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="D8" s="4"/>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30">
-      <c r="A8" t="s">
+    <row r="9" spans="1:10" ht="30">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1371,50 +1394,74 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="D11" s="6"/>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="75">
-      <c r="A11" t="s">
+    <row r="12" spans="1:10" ht="75">
+      <c r="A12" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>5</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1546,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G2:G4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1708,60 +1755,53 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10">
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="D8" s="4"/>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="68.25" customHeight="1">
-      <c r="A8" t="s">
+    <row r="9" spans="1:10" ht="68.25" customHeight="1">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="168" customHeight="1">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1774,113 +1814,137 @@
         <v>1</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="168" customHeight="1">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>0</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A10" t="s">
+    <row r="11" spans="1:10" ht="41.25" customHeight="1">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="D11" s="6"/>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="180">
-      <c r="A11" t="s">
+    <row r="12" spans="1:10" ht="180">
+      <c r="A12" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="150">
-      <c r="A12" t="s">
+    <row r="13" spans="1:10" ht="150">
+      <c r="A13" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30">
-      <c r="A13" t="s">
+    <row r="14" spans="1:10" ht="30">
+      <c r="A14" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
         <v>71</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1894,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2176,10 +2240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G4" sqref="G2:G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2311,53 +2375,49 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="D7" s="4"/>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45">
-      <c r="A7" t="s">
+    <row r="8" spans="1:10" ht="45">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2373,18 +2433,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="30">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="G9">
+      <c r="D10" s="4"/>
+      <c r="G10">
         <v>3</v>
       </c>
     </row>
@@ -2396,10 +2477,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2530,52 +2611,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="37.5" customHeight="1">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
+        <v>148</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2587,38 +2669,38 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -2626,10 +2708,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2641,17 +2723,37 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2662,10 +2764,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G2:G4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2815,56 +2917,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="39" customHeight="1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10">
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="39" customHeight="1">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A8" t="s">
+    <row r="9" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -2877,135 +2975,136 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D10" s="6"/>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
       <c r="G10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D11" s="6"/>
       <c r="G11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
         <v>55</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>56</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="60">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="60">
+      <c r="A14" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
         <v>59</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>60</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="45">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45">
+      <c r="A16" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
       <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
@@ -3017,35 +3116,55 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
         <v>66</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>3</v>
       </c>
     </row>
@@ -3058,8 +3177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3509,16 +3628,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="69.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
   </cols>
@@ -3673,61 +3792,54 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="45">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -3740,77 +3852,78 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="D11" s="6"/>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="75">
-      <c r="A11" t="s">
+    <row r="12" spans="1:11" ht="60">
+      <c r="A12" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -3818,13 +3931,10 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3833,67 +3943,93 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="45">
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="1:11" ht="30">
+      <c r="B16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
         <v>81</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="B16" s="3" t="s">
+    <row r="17" spans="2:10">
+      <c r="B17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>3</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3904,10 +4040,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G2:G4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4039,182 +4175,175 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="48" customHeight="1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:10" ht="48" customHeight="1">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A10" t="s">
+    <row r="11" spans="1:10" ht="35.25" customHeight="1">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="60" customHeight="1">
-      <c r="A11" t="s">
+    <row r="12" spans="1:10" ht="60" customHeight="1">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>0</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30">
-      <c r="A12" t="s">
+    <row r="13" spans="1:10" ht="30">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="106.5" customHeight="1">
-      <c r="A13" t="s">
+    <row r="14" spans="1:10" ht="106.5" customHeight="1">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -4230,63 +4359,63 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="D16" s="4"/>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -4299,50 +4428,74 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="D19" s="6"/>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="75">
-      <c r="A19" t="s">
+    <row r="20" spans="1:10" ht="75">
+      <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>5</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4478,10 +4631,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4614,126 +4767,119 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="D7" s="4"/>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="100.5" customHeight="1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:10" ht="100.5" customHeight="1">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="D10" s="6"/>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="75">
-      <c r="A10" t="s">
+    <row r="11" spans="1:10" ht="75">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4749,24 +4895,48 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="D13" s="6"/>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>108</v>
       </c>
     </row>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="148">
   <si>
     <t>Name</t>
   </si>
@@ -467,12 +467,6 @@
   </si>
   <si>
     <t>//button[@ng-click="vm.go(entry.state)" and @aria-label="Authorization"]</t>
-  </si>
-  <si>
-    <t>//md-checkbox[@ng-model="vm.onlyMe"]</t>
-  </si>
-  <si>
-    <t>uncheck only my task</t>
   </si>
   <si>
     <t>//button[@ng-click="vm.deAssign(exchange)" and @aria-hidden="false"]</t>
@@ -846,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1004,10 +998,10 @@
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1023,12 +1017,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="37.5" customHeight="1">
+    <row r="8" spans="1:10" ht="34.5" customHeight="1">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1041,20 +1035,22 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="34.5" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="37.5" customHeight="1">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E9">
         <v>1</v>
       </c>
@@ -1062,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="37.5" customHeight="1">
@@ -1088,35 +1084,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="37.5" customHeight="1">
+    <row r="11" spans="1:10" ht="66" customHeight="1">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="66" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="31.5" customHeight="1">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>24</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1125,43 +1116,25 @@
       <c r="E12">
         <v>1</v>
       </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
       <c r="G12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="31.5" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
       <c r="G13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="G14">
         <v>3</v>
       </c>
     </row>
@@ -1172,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1336,52 +1309,59 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" t="s">
-        <v>147</v>
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1394,74 +1374,50 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="75">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
       <c r="G11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="75">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="J12" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1593,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1755,53 +1711,60 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="B7" t="s">
-        <v>147</v>
+    <row r="7" spans="1:10" ht="45">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="45">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="68.25" customHeight="1">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="68.25" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="168" customHeight="1">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1814,137 +1777,113 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="168" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="41.25" customHeight="1">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="41.25" customHeight="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="180">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="150">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="180">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="150">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
       <c r="G14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="J15" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1958,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2240,10 +2179,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2375,49 +2314,53 @@
       </c>
     </row>
     <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4"/>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2433,39 +2376,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
       <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="G10">
         <v>3</v>
       </c>
     </row>
@@ -2477,7 +2399,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
@@ -2611,53 +2533,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="37.5" customHeight="1">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>147</v>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2669,38 +2590,38 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -2708,10 +2629,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2723,37 +2644,17 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2764,9 +2665,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
@@ -2917,35 +2818,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="B7" t="s">
-        <v>147</v>
+    <row r="7" spans="1:10" ht="39" customHeight="1">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="39" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="37.5" customHeight="1">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2953,16 +2861,13 @@
       <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="37.5" customHeight="1">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -2975,51 +2880,50 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -3034,12 +2938,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="60">
       <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -3054,12 +2958,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="60">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -3074,12 +2978,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="45">
       <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -3094,17 +2998,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="45">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="D16">
         <v>1</v>
       </c>
       <c r="F16">
@@ -3116,55 +3020,35 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19">
         <v>3</v>
       </c>
     </row>
@@ -3177,7 +3061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3628,10 +3512,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3792,34 +3676,44 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" t="s">
-        <v>147</v>
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3827,19 +3721,16 @@
       <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -3852,66 +3743,65 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="60">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="60">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3920,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3931,10 +3821,13 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3943,93 +3836,67 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30">
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="B16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3</v>
-      </c>
-      <c r="J17" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4040,10 +3907,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4175,52 +4042,58 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="30">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="48" customHeight="1">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="48" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -4232,118 +4105,119 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="35.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60" customHeight="1">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>0</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="J11" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="60" customHeight="1">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="106.5" customHeight="1">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="106.5" customHeight="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -4359,63 +4233,63 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15">
-        <v>1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D15" s="4"/>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16">
+        <v>1</v>
+      </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
         <v>3</v>
       </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -4428,74 +4302,50 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
       <c r="G18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="30">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="75">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
       <c r="G19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="75">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="J20" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4631,9 +4481,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -4767,58 +4617,65 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="30">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="100.5" customHeight="1">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4"/>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="100.5" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="6"/>
       <c r="E8">
         <v>1</v>
       </c>
@@ -4826,60 +4683,60 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
       <c r="G9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="75">
       <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D10" s="6"/>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="75">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30">
       <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4895,48 +4752,24 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="J13" s="1" t="s">
         <v>108</v>
       </c>
     </row>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -1897,7 +1897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -4356,10 +4356,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15"/>
@@ -4401,22 +4401,35 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="46.5" customHeight="1">
+    <row r="2" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -4431,46 +4444,23 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3" t="s">
         <v>115</v>
       </c>
     </row>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="149">
   <si>
     <t>Name</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>//button[@ng-click="vm.deAssign(exchange)" and @aria-hidden="false"]</t>
+  </si>
+  <si>
+    <t>//button[@class="md-primary md-raised md-hue-2 md-button md-cs-content-theme-theme md-ink-ripple"]</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1151,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1392,7 +1395,7 @@
       </c>
       <c r="D10" s="6"/>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>105</v>
@@ -1431,7 +1434,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1536,7 +1539,7 @@
         <v>28</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>108</v>
@@ -1551,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1795,7 +1798,7 @@
       </c>
       <c r="D10" s="6"/>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>105</v>
@@ -1881,7 +1884,7 @@
         <v>28</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>108</v>
@@ -1897,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3061,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3320,7 +3323,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="G10" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>89</v>
@@ -3498,7 +3501,7 @@
         <v>28</v>
       </c>
       <c r="G18" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>97</v>
@@ -3514,8 +3517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3761,7 +3764,7 @@
       </c>
       <c r="D10" s="6"/>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>89</v>
@@ -3850,7 +3853,7 @@
         <v>28</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>102</v>
@@ -3909,8 +3912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4122,7 +4125,7 @@
         <v>28</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>105</v>
@@ -4132,8 +4135,8 @@
       <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
-        <v>35</v>
+      <c r="B10" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4184,6 +4187,9 @@
       <c r="C12" t="s">
         <v>28</v>
       </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
       <c r="J12" s="1" t="s">
         <v>108</v>
       </c>
@@ -4320,7 +4326,7 @@
       </c>
       <c r="D18" s="6"/>
       <c r="G18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>105</v>
@@ -4358,8 +4364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15"/>
@@ -4458,7 +4464,7 @@
         <v>28</v>
       </c>
       <c r="G4" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>115</v>
@@ -4474,7 +4480,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4691,7 +4697,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="G9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>116</v>
@@ -4757,7 +4763,7 @@
       </c>
       <c r="D12" s="6"/>
       <c r="G12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>108</v>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="148">
   <si>
     <t>Name</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Click Send Authz Req</t>
   </si>
   <si>
-    <t>//*[@id="ui-admin-email"]//button[@ng-click="vm.sendAuthResponse(exchange, auth, $event)" and @class="md-primary md-raised md-hue-2 md-button md-cs-content-theme-theme md-ink-ripple"]</t>
-  </si>
-  <si>
     <t>Click Confirm</t>
   </si>
   <si>
@@ -472,7 +469,7 @@
     <t>//button[@ng-click="vm.deAssign(exchange)" and @aria-hidden="false"]</t>
   </si>
   <si>
-    <t>//button[@class="md-primary md-raised md-hue-2 md-button md-cs-content-theme-theme md-ink-ripple"]</t>
+    <t>//*[@id="ui-admin-email"]//button[@ng-click="vm.sendAuthRequest(exchange, auth, $event)" and @class="md-primary md-raised md-hue-2 md-button md-cs-content-theme-theme md-ink-ripple"]</t>
   </si>
 </sst>
 </file>
@@ -885,18 +882,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -911,15 +908,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -934,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -942,7 +939,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1092,7 +1089,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1131,7 +1128,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1150,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1191,18 +1188,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1217,15 +1214,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1240,7 +1237,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="29.25" customHeight="1">
@@ -1248,7 +1245,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1265,10 +1262,10 @@
     </row>
     <row r="5" spans="1:10" ht="101.25" customHeight="1">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1284,15 +1281,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="66.75" customHeight="1">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1308,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1332,7 +1329,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -1340,7 +1337,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1356,7 +1353,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1380,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1394,20 +1391,26 @@
         <v>28</v>
       </c>
       <c r="D10" s="6"/>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
       <c r="G10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="75">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1434,7 +1437,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1476,19 +1479,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="60">
       <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>68</v>
-      </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1502,16 +1505,16 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1525,12 +1528,12 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
@@ -1539,10 +1542,10 @@
         <v>28</v>
       </c>
       <c r="G4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1554,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1594,18 +1597,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.5" customHeight="1">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1620,15 +1623,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1643,7 +1646,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1">
@@ -1651,7 +1654,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1668,10 +1671,10 @@
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1687,15 +1690,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="55.5" customHeight="1">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1711,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45">
@@ -1735,7 +1738,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="68.25" customHeight="1">
@@ -1743,7 +1746,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1759,7 +1762,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="168" customHeight="1">
@@ -1783,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="41.25" customHeight="1">
@@ -1798,19 +1801,19 @@
       </c>
       <c r="D10" s="6"/>
       <c r="G10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="180">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -1824,16 +1827,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="150">
       <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -1847,16 +1850,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -1870,12 +1873,12 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -1884,10 +1887,10 @@
         <v>28</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1900,8 +1903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1940,18 +1943,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="40.5" customHeight="1">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1966,15 +1969,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="63" customHeight="1">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1989,7 +1992,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1">
@@ -1997,7 +2000,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2014,10 +2017,10 @@
     </row>
     <row r="5" spans="1:10" ht="69.75" customHeight="1">
       <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2032,7 +2035,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2040,7 +2043,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2055,7 +2058,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" customHeight="1">
@@ -2078,7 +2081,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
@@ -2086,7 +2089,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -2103,7 +2106,7 @@
       </c>
       <c r="H8" s="3"/>
       <c r="J8" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2126,15 +2129,15 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45">
       <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -2149,15 +2152,15 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2172,7 +2175,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2223,18 +2226,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2249,15 +2252,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2272,7 +2275,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2280,7 +2283,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2404,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2444,18 +2447,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2470,15 +2473,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2493,7 +2496,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2501,7 +2504,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2615,7 +2618,7 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -2632,10 +2635,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2652,13 +2655,22 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2707,18 +2719,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2733,15 +2745,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="39" customHeight="1">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2756,7 +2768,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1">
@@ -2764,7 +2776,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2781,10 +2793,10 @@
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2802,10 +2814,10 @@
     </row>
     <row r="6" spans="1:10" ht="59.25" customHeight="1">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2832,7 +2844,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2849,7 +2861,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2903,10 +2915,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
         <v>53</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2923,10 +2935,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
         <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -2943,10 +2955,10 @@
     </row>
     <row r="13" spans="1:10" ht="60">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -2963,10 +2975,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
         <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -2983,10 +2995,10 @@
     </row>
     <row r="15" spans="1:10" ht="45">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -3003,10 +3015,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
         <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -3023,7 +3035,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>25</v>
@@ -3043,7 +3055,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
@@ -3064,8 +3076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3107,18 +3119,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42.75" customHeight="1">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3136,15 +3148,15 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3162,7 +3174,7 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1">
@@ -3170,7 +3182,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3191,10 +3203,10 @@
     </row>
     <row r="5" spans="1:10" ht="63.75" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -3210,15 +3222,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -3234,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -3248,7 +3260,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -3260,7 +3272,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
@@ -3268,7 +3280,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -3284,7 +3296,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
@@ -3308,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60.75" customHeight="1">
@@ -3323,19 +3335,19 @@
       </c>
       <c r="D10" s="8"/>
       <c r="G10" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
       <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3349,16 +3361,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="74.25" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -3372,16 +3384,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
       <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -3395,16 +3407,16 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
@@ -3418,16 +3430,16 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60">
       <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
@@ -3441,15 +3453,15 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
@@ -3464,12 +3476,12 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
@@ -3487,12 +3499,12 @@
         <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>27</v>
@@ -3501,10 +3513,10 @@
         <v>28</v>
       </c>
       <c r="G18" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3517,8 +3529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3555,18 +3567,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3581,16 +3593,16 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3605,7 +3617,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -3614,7 +3626,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3632,10 +3644,10 @@
     </row>
     <row r="5" spans="1:11" ht="65.25" customHeight="1">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -3651,15 +3663,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="48.75" customHeight="1">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -3675,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3689,7 +3701,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3701,7 +3713,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30">
@@ -3709,7 +3721,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -3725,7 +3737,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3749,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3757,26 +3769,26 @@
         <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="6"/>
       <c r="G10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -3790,21 +3802,21 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3813,22 +3825,22 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
@@ -3839,12 +3851,12 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>27</v>
@@ -3853,22 +3865,22 @@
         <v>28</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30">
       <c r="B15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
         <v>80</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>81</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
@@ -3879,12 +3891,12 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -3900,7 +3912,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3912,8 +3924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3950,18 +3962,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3976,15 +3988,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3999,7 +4011,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4007,7 +4019,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4042,7 +4054,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -4065,7 +4077,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" customHeight="1">
@@ -4088,7 +4100,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -4111,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
@@ -4125,18 +4137,18 @@
         <v>28</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="35.25" customHeight="1">
       <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>148</v>
+      <c r="B10" t="s">
+        <v>147</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4151,15 +4163,15 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" customHeight="1">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4174,12 +4186,12 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -4187,19 +4199,16 @@
       <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="106.5" customHeight="1">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -4215,15 +4224,15 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -4239,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4263,7 +4272,7 @@
         <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
@@ -4271,7 +4280,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -4287,7 +4296,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
@@ -4311,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
@@ -4319,26 +4328,26 @@
         <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="6"/>
       <c r="G18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="75">
       <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -4352,7 +4361,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4365,7 +4374,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15"/>
@@ -4401,19 +4410,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="46.5" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
@@ -4427,16 +4436,16 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -4450,12 +4459,12 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>27</v>
@@ -4464,10 +4473,10 @@
         <v>28</v>
       </c>
       <c r="G4" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4479,8 +4488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4517,18 +4526,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -4543,15 +4552,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -4566,7 +4575,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4574,7 +4583,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4610,7 +4619,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -4634,7 +4643,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="100.5" customHeight="1">
@@ -4658,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -4682,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
@@ -4697,10 +4706,10 @@
       </c>
       <c r="D9" s="6"/>
       <c r="G9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="75">
@@ -4708,7 +4717,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4724,15 +4733,15 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4748,12 +4757,12 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -4762,11 +4771,17 @@
         <v>28</v>
       </c>
       <c r="D12" s="6"/>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
       <c r="G12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -1147,7 +1147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -4488,8 +4488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4774,12 +4774,6 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
       <c r="J12" s="1" t="s">
         <v>107</v>
       </c>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="150">
   <si>
     <t>Name</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Click Selected Search</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/md-content/md-content/div[1]/md-content/md-list/md-list[1]/md-list-item[1]/div/button</t>
-  </si>
-  <si>
     <t>Click Assign to ("Someone")</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
     <t>/html/body/div/div/md-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[3]/span[1]</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/md-content/div/md-content/md-list/md-list/md-list-item/div/button</t>
-  </si>
-  <si>
     <t>Click Close Authzx</t>
   </si>
   <si>
@@ -470,6 +464,18 @@
   </si>
   <si>
     <t>//*[@id="ui-admin-email"]//button[@ng-click="vm.sendAuthRequest(exchange, auth, $event)" and @class="md-primary md-raised md-hue-2 md-button md-cs-content-theme-theme md-ink-ripple"]</t>
+  </si>
+  <si>
+    <t>(//button[@class="_md-no-style md-button md-cs-content-theme-theme md-ink-ripple"])[1]</t>
+  </si>
+  <si>
+    <t>//li[@ng-click="$mdAutocompleteCtrl.select($index)"]</t>
+  </si>
+  <si>
+    <t>focus</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="dialog.hide()" and @aria-label="Confirm!"]</t>
   </si>
 </sst>
 </file>
@@ -843,7 +849,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -882,56 +888,56 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
       <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
       <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -939,7 +945,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1001,7 +1007,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1019,10 +1025,10 @@
     </row>
     <row r="8" spans="1:10" ht="34.5" customHeight="1">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1040,16 +1046,16 @@
     </row>
     <row r="9" spans="1:10" ht="37.5" customHeight="1">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1063,17 +1069,15 @@
     </row>
     <row r="10" spans="1:10" ht="37.5" customHeight="1">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10">
         <v>1</v>
       </c>
@@ -1086,10 +1090,10 @@
     </row>
     <row r="11" spans="1:10" ht="66" customHeight="1">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1104,10 +1108,10 @@
     </row>
     <row r="12" spans="1:10" ht="31.5" customHeight="1">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1125,13 +1129,13 @@
     </row>
     <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4"/>
       <c r="G13">
@@ -1147,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1188,56 +1192,56 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="29.25" customHeight="1">
@@ -1245,7 +1249,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1262,10 +1266,10 @@
     </row>
     <row r="5" spans="1:10" ht="101.25" customHeight="1">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1281,15 +1285,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="66.75" customHeight="1">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1305,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1329,7 +1333,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -1337,7 +1341,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1353,15 +1357,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1373,44 +1377,35 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" s="6"/>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="75">
       <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -1424,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1437,7 +1432,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1479,19 +1474,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="60">
       <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1505,16 +1500,16 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1528,24 +1523,24 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1557,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1597,56 +1592,56 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.5" customHeight="1">
       <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60">
       <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1">
@@ -1654,7 +1649,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1671,10 +1666,10 @@
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1690,15 +1685,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="55.5" customHeight="1">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1714,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45">
@@ -1738,7 +1733,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="68.25" customHeight="1">
@@ -1746,7 +1741,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1762,15 +1757,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="168" customHeight="1">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1786,34 +1781,34 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="41.25" customHeight="1">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
       <c r="D10" s="6"/>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="180">
       <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -1827,16 +1822,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="150">
       <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -1850,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -1873,24 +1868,24 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1903,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1943,56 +1938,56 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="40.5" customHeight="1">
       <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="63" customHeight="1">
       <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1">
@@ -2000,7 +1995,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2017,10 +2012,10 @@
     </row>
     <row r="5" spans="1:10" ht="69.75" customHeight="1">
       <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2035,7 +2030,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2043,7 +2038,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2058,7 +2053,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" customHeight="1">
@@ -2081,7 +2076,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
@@ -2089,7 +2084,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -2106,15 +2101,15 @@
       </c>
       <c r="H8" s="3"/>
       <c r="J8" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -2129,15 +2124,15 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -2152,15 +2147,15 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2175,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2187,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2226,56 +2221,56 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2283,7 +2278,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2345,7 +2340,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2363,10 +2358,10 @@
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2378,19 +2373,16 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="4"/>
       <c r="G9">
@@ -2407,14 +2399,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="183.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="23.42578125" customWidth="1"/>
@@ -2447,56 +2439,56 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>141</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2504,7 +2496,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2563,8 +2555,8 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
+      <c r="B7" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2581,11 +2573,11 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -2594,20 +2586,17 @@
       </c>
       <c r="F8">
         <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2615,10 +2604,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -2635,10 +2624,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2648,29 +2637,20 @@
       </c>
       <c r="F11">
         <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2680,16 +2660,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="2" max="2" width="69.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2719,56 +2699,56 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="39" customHeight="1">
       <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1">
@@ -2776,7 +2756,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2793,10 +2773,10 @@
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2814,10 +2794,10 @@
     </row>
     <row r="6" spans="1:10" ht="59.25" customHeight="1">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2844,7 +2824,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2861,7 +2841,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2879,10 +2859,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -2900,13 +2880,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
       <c r="D10" s="6"/>
       <c r="G10">
@@ -2915,16 +2895,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
       <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2935,95 +2912,95 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30">
+      <c r="A14" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="60">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
+      <c r="B14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30">
+      <c r="A16" t="s">
         <v>59</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="45">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>63</v>
+      <c r="B16" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
@@ -3035,35 +3012,58 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>3</v>
       </c>
     </row>
@@ -3076,8 +3076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3119,18 +3119,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42.75" customHeight="1">
       <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3148,15 +3148,15 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3174,7 +3174,7 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1">
@@ -3182,7 +3182,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3203,10 +3203,10 @@
     </row>
     <row r="5" spans="1:10" ht="63.75" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -3222,15 +3222,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -3246,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -3260,7 +3260,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -3272,15 +3272,15 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>43</v>
+      <c r="B8" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -3296,15 +3296,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -3320,34 +3320,34 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D10" s="8"/>
       <c r="G10" s="1">
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
       <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3361,16 +3361,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="74.25" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -3384,16 +3384,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
       <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -3407,16 +3407,16 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
@@ -3430,16 +3430,16 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60">
       <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
@@ -3453,15 +3453,15 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
@@ -3476,15 +3476,15 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -3496,27 +3496,27 @@
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G18" s="1">
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3529,14 +3529,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="69.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
   </cols>
@@ -3567,57 +3568,57 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>143</v>
       </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>144</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -3626,7 +3627,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3644,10 +3645,10 @@
     </row>
     <row r="5" spans="1:11" ht="65.25" customHeight="1">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -3663,15 +3664,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="48.75" customHeight="1">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -3687,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3701,7 +3702,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3713,7 +3714,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30">
@@ -3721,7 +3722,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -3737,15 +3738,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -3758,37 +3759,43 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="6"/>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60">
       <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -3802,21 +3809,21 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3825,61 +3832,58 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30">
       <c r="B15" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3891,12 +3895,12 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -3912,7 +3916,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3924,8 +3928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3962,56 +3966,56 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4019,7 +4023,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4054,7 +4058,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -4077,15 +4081,15 @@
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" customHeight="1">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
+      <c r="B7" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4100,16 +4104,16 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -4119,36 +4123,33 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="35.25" customHeight="1">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4163,15 +4164,15 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" customHeight="1">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
         <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4186,29 +4187,29 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="106.5" customHeight="1">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -4224,15 +4225,15 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -4248,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4272,7 +4273,7 @@
         <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
@@ -4280,7 +4281,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -4296,15 +4297,15 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -4320,34 +4321,34 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="6"/>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="75">
       <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -4361,7 +4362,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4374,7 +4375,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15"/>
@@ -4410,19 +4411,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="46.5" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
@@ -4436,16 +4437,16 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -4455,28 +4456,25 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="G4" s="3">
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4488,8 +4486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4526,56 +4524,56 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
       <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4583,7 +4581,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4619,7 +4617,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -4643,7 +4641,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="100.5" customHeight="1">
@@ -4651,7 +4649,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4667,15 +4665,15 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -4691,33 +4689,33 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="6"/>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="75">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4733,15 +4731,15 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
         <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4757,25 +4755,25 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="151">
   <si>
     <t>Name</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Click Confirm</t>
   </si>
   <si>
-    <t>/html/body/div[3]/md-dialog/md-dialog-actions/button[2]/span</t>
-  </si>
-  <si>
     <t>verify confirm</t>
   </si>
   <si>
@@ -476,6 +473,12 @@
   </si>
   <si>
     <t>//button[@ng-click="dialog.hide()" and @aria-label="Confirm!"]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.closeActionItem($event, vm.currentActionItem)" and @aria-label="Close Action Item"]</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="Confirm!"]</t>
   </si>
 </sst>
 </file>
@@ -888,18 +891,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -914,15 +917,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -937,7 +940,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -945,7 +948,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1007,7 +1010,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1072,7 +1075,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1093,7 +1096,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1132,7 +1135,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1151,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1192,18 +1195,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1218,15 +1221,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1241,7 +1244,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="29.25" customHeight="1">
@@ -1249,7 +1252,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1266,10 +1269,10 @@
     </row>
     <row r="5" spans="1:10" ht="101.25" customHeight="1">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1285,15 +1288,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="66.75" customHeight="1">
       <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1309,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1333,7 +1336,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -1341,7 +1344,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1357,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1377,8 +1380,11 @@
       <c r="F9">
         <v>1</v>
       </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1396,16 +1402,16 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="75">
       <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -1419,7 +1425,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1474,19 +1480,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="60">
       <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1500,16 +1506,16 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1523,12 +1529,12 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
@@ -1540,7 +1546,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1592,18 +1598,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.5" customHeight="1">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1618,15 +1624,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1641,7 +1647,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1">
@@ -1649,7 +1655,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1666,10 +1672,10 @@
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1685,15 +1691,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="55.5" customHeight="1">
       <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1709,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45">
@@ -1733,7 +1739,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="68.25" customHeight="1">
@@ -1741,7 +1747,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1757,7 +1763,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="168" customHeight="1">
@@ -1781,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="41.25" customHeight="1">
@@ -1799,16 +1805,16 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="180">
       <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -1822,16 +1828,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="150">
       <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -1845,16 +1851,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -1868,12 +1874,12 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1885,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1938,18 +1944,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="40.5" customHeight="1">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1964,15 +1970,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="63" customHeight="1">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1987,7 +1993,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1">
@@ -1995,7 +2001,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2012,10 +2018,10 @@
     </row>
     <row r="5" spans="1:10" ht="69.75" customHeight="1">
       <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2030,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2038,7 +2044,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2053,7 +2059,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" customHeight="1">
@@ -2076,7 +2082,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
@@ -2084,7 +2090,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -2101,7 +2107,7 @@
       </c>
       <c r="H8" s="3"/>
       <c r="J8" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2124,15 +2130,15 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45">
       <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -2147,7 +2153,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2155,7 +2161,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2170,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2221,18 +2227,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2247,15 +2253,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2270,7 +2276,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2278,7 +2284,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2340,7 +2346,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2439,18 +2445,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2465,15 +2471,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2488,7 +2494,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2496,7 +2502,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2556,7 +2562,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2607,7 +2613,7 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -2627,7 +2633,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2641,7 +2647,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -2699,18 +2705,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2725,15 +2731,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="39" customHeight="1">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2748,7 +2754,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1">
@@ -2756,7 +2762,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2773,10 +2779,10 @@
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2794,10 +2800,10 @@
     </row>
     <row r="6" spans="1:10" ht="59.25" customHeight="1">
       <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2824,7 +2830,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2841,7 +2847,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2895,13 +2901,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2912,10 +2918,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
         <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -2932,10 +2938,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
         <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -2952,10 +2958,10 @@
     </row>
     <row r="14" spans="1:10" ht="30">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -2972,10 +2978,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
         <v>57</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -2992,10 +2998,10 @@
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -3012,10 +3018,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
         <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -3032,7 +3038,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>24</v>
@@ -3052,7 +3058,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -3076,7 +3082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -3119,18 +3125,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42.75" customHeight="1">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3148,15 +3154,15 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3174,7 +3180,7 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1">
@@ -3182,7 +3188,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3203,10 +3209,10 @@
     </row>
     <row r="5" spans="1:10" ht="63.75" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -3222,15 +3228,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -3246,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -3260,7 +3266,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -3272,7 +3278,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
@@ -3280,7 +3286,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -3296,7 +3302,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
@@ -3320,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60.75" customHeight="1">
@@ -3338,16 +3344,16 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
       <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3361,16 +3367,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="74.25" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -3384,16 +3390,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
       <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -3407,16 +3413,16 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
@@ -3430,16 +3436,16 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60">
       <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
@@ -3453,15 +3459,15 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
@@ -3476,12 +3482,12 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>24</v>
@@ -3499,12 +3505,12 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
@@ -3516,7 +3522,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3568,18 +3574,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3594,16 +3600,16 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3618,7 +3624,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -3627,7 +3633,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3645,10 +3651,10 @@
     </row>
     <row r="5" spans="1:11" ht="65.25" customHeight="1">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -3664,15 +3670,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="48.75" customHeight="1">
       <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -3688,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3702,7 +3708,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3714,7 +3720,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30">
@@ -3722,7 +3728,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -3738,7 +3744,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3762,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3770,7 +3776,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -3786,16 +3792,16 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60">
       <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -3809,21 +3815,21 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3832,22 +3838,22 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
@@ -3855,12 +3861,12 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -3872,19 +3878,19 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30">
       <c r="B15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
         <v>77</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>78</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
@@ -3895,12 +3901,12 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -3916,7 +3922,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3928,8 +3934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3966,18 +3972,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3992,15 +3998,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -4015,7 +4021,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4023,7 +4029,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4058,7 +4064,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -4081,7 +4087,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" customHeight="1">
@@ -4089,7 +4095,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4104,7 +4110,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -4124,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
@@ -4141,7 +4147,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="35.25" customHeight="1">
@@ -4149,7 +4155,7 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4164,7 +4170,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" customHeight="1">
@@ -4172,7 +4178,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4187,12 +4193,12 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -4201,15 +4207,15 @@
         <v>27</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="106.5" customHeight="1">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -4225,15 +4231,15 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -4249,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4273,7 +4279,7 @@
         <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
@@ -4281,7 +4287,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -4297,7 +4303,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
@@ -4321,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
@@ -4329,7 +4335,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -4339,16 +4345,16 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="75">
       <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -4362,7 +4368,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4411,19 +4417,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="46.5" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
@@ -4437,16 +4443,16 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -4457,12 +4463,12 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>26</v>
@@ -4474,7 +4480,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4486,8 +4492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4524,18 +4530,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -4550,15 +4556,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -4573,7 +4579,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4581,7 +4587,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4617,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -4641,7 +4647,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="100.5" customHeight="1">
@@ -4649,7 +4655,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4665,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -4689,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
@@ -4707,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="75">
@@ -4715,7 +4721,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4731,7 +4737,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
@@ -4739,7 +4745,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4755,12 +4761,12 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -4773,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="150">
   <si>
     <t>Name</t>
   </si>
@@ -473,9 +473,6 @@
   </si>
   <si>
     <t>//button[@ng-click="dialog.hide()" and @aria-label="Confirm!"]</t>
-  </si>
-  <si>
-    <t>//button[@ng-click="vm.closeActionItem($event, vm.currentActionItem)" and @aria-label="Close Action Item"]</t>
   </si>
   <si>
     <t>//button[@aria-label="Confirm!"]</t>
@@ -1154,7 +1151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1378,9 +1375,6 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -3934,8 +3928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4144,7 +4138,7 @@
         <v>27</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>101</v>
@@ -4167,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>102</v>
@@ -4178,7 +4172,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4190,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>103</v>
@@ -4205,6 +4199,9 @@
       </c>
       <c r="C12" t="s">
         <v>27</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>104</v>
@@ -4492,8 +4489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4745,7 +4742,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4758,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>114</v>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="151">
   <si>
     <t>Name</t>
   </si>
@@ -476,6 +476,9 @@
   </si>
   <si>
     <t>//button[@aria-label="Confirm!"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.searchName"]</t>
   </si>
 </sst>
 </file>
@@ -849,7 +852,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -986,7 +989,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1151,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1317,7 +1320,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1552,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1712,12 +1715,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1898,14 +1901,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="69.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="9" max="9" width="18.140625" customWidth="1"/>
@@ -2061,7 +2064,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -2182,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2319,7 +2322,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -2400,7 +2403,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2536,7 +2539,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -2662,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2818,7 +2821,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -3076,8 +3079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3254,7 +3257,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -3529,8 +3532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3696,7 +3699,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -3928,8 +3931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4066,7 +4069,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -4489,8 +4492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4628,7 +4631,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="150">
   <si>
     <t>Name</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Click Search</t>
-  </si>
-  <si>
-    <t>(//input[@ng-model="vm.searchName"])[2]</t>
   </si>
   <si>
     <t>input</t>
@@ -891,18 +888,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -917,15 +914,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -940,7 +937,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -948,7 +945,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -989,10 +986,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4"/>
       <c r="F6">
@@ -1002,15 +999,15 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1028,10 +1025,10 @@
     </row>
     <row r="8" spans="1:10" ht="34.5" customHeight="1">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1049,16 +1046,16 @@
     </row>
     <row r="9" spans="1:10" ht="37.5" customHeight="1">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1072,10 +1069,10 @@
     </row>
     <row r="10" spans="1:10" ht="37.5" customHeight="1">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1093,10 +1090,10 @@
     </row>
     <row r="11" spans="1:10" ht="66" customHeight="1">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1111,10 +1108,10 @@
     </row>
     <row r="12" spans="1:10" ht="31.5" customHeight="1">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1132,13 +1129,13 @@
     </row>
     <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4"/>
       <c r="G13">
@@ -1195,18 +1192,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1221,15 +1218,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1244,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="29.25" customHeight="1">
@@ -1252,7 +1249,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1269,10 +1266,10 @@
     </row>
     <row r="5" spans="1:10" ht="101.25" customHeight="1">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1288,15 +1285,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="66.75" customHeight="1">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1312,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1320,10 +1317,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4"/>
       <c r="F7">
@@ -1333,18 +1330,18 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1360,15 +1357,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1381,34 +1378,34 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
       </c>
       <c r="D10" s="6"/>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="75">
       <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -1422,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1477,19 +1474,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="60">
       <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1503,16 +1500,16 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1526,24 +1523,24 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1595,18 +1592,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.5" customHeight="1">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1621,15 +1618,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1644,7 +1641,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1">
@@ -1652,7 +1649,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1669,10 +1666,10 @@
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1688,15 +1685,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="55.5" customHeight="1">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1712,18 +1709,18 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4"/>
       <c r="F7">
@@ -1733,18 +1730,18 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="68.25" customHeight="1">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1760,15 +1757,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="168" customHeight="1">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1784,34 +1781,34 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="41.25" customHeight="1">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
       </c>
       <c r="D10" s="6"/>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="180">
       <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -1825,16 +1822,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="150">
       <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -1848,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -1871,24 +1868,24 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1901,7 +1898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1941,18 +1938,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="40.5" customHeight="1">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1967,15 +1964,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="63" customHeight="1">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1990,7 +1987,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1">
@@ -1998,7 +1995,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2015,10 +2012,10 @@
     </row>
     <row r="5" spans="1:10" ht="69.75" customHeight="1">
       <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2033,7 +2030,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2041,7 +2038,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2056,7 +2053,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" customHeight="1">
@@ -2064,30 +2061,30 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="J7" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="45">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -2104,15 +2101,15 @@
       </c>
       <c r="H8" s="3"/>
       <c r="J8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -2127,15 +2124,15 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="45">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -2150,15 +2147,15 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2173,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2224,18 +2221,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2250,15 +2247,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2273,7 +2270,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2281,7 +2278,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2322,10 +2319,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4"/>
       <c r="F6">
@@ -2335,15 +2332,15 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2361,10 +2358,10 @@
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2379,13 +2376,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="4"/>
       <c r="G9">
@@ -2442,18 +2439,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2468,15 +2465,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2491,7 +2488,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2499,7 +2496,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2539,27 +2536,27 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
         <v>14</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2576,10 +2573,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2593,13 +2590,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2607,10 +2604,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -2627,10 +2624,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2644,13 +2641,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -2702,18 +2699,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2728,15 +2725,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="39" customHeight="1">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2751,7 +2748,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1">
@@ -2759,7 +2756,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2776,10 +2773,10 @@
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2797,10 +2794,10 @@
     </row>
     <row r="6" spans="1:10" ht="59.25" customHeight="1">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2821,30 +2818,30 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="37.5" customHeight="1">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2862,10 +2859,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -2883,13 +2880,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
       </c>
       <c r="D10" s="6"/>
       <c r="G10">
@@ -2898,13 +2895,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2915,10 +2912,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
         <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -2935,10 +2932,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
         <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -2955,10 +2952,10 @@
     </row>
     <row r="14" spans="1:10" ht="30">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -2975,10 +2972,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
         <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -2995,10 +2992,10 @@
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -3015,13 +3012,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
         <v>60</v>
       </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -3035,10 +3032,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -3055,13 +3052,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
         <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3122,18 +3119,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42.75" customHeight="1">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3151,15 +3148,15 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3177,7 +3174,7 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1">
@@ -3185,7 +3182,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3206,10 +3203,10 @@
     </row>
     <row r="5" spans="1:10" ht="63.75" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -3225,15 +3222,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -3249,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -3257,33 +3254,33 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -3299,15 +3296,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -3323,34 +3320,34 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="G10" s="1">
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
       <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3364,16 +3361,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="74.25" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -3387,16 +3384,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
       <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -3410,16 +3407,16 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
@@ -3433,16 +3430,16 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60">
       <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
@@ -3456,18 +3453,18 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -3479,15 +3476,15 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -3502,24 +3499,24 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G18" s="1">
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3571,18 +3568,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3597,16 +3594,16 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3621,7 +3618,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -3630,7 +3627,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3648,10 +3645,10 @@
     </row>
     <row r="5" spans="1:11" ht="65.25" customHeight="1">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -3667,15 +3664,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="48.75" customHeight="1">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -3691,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3699,33 +3696,33 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -3741,15 +3738,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -3765,18 +3762,18 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10">
@@ -3789,16 +3786,16 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60">
       <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -3812,22 +3809,22 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
       <c r="F12">
         <v>1</v>
       </c>
@@ -3835,22 +3832,22 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
@@ -3858,36 +3855,36 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30">
       <c r="B15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
         <v>76</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
@@ -3898,12 +3895,12 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -3919,7 +3916,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3931,8 +3928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3969,18 +3966,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3995,15 +3992,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -4018,7 +4015,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4026,7 +4023,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4061,7 +4058,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -4069,30 +4066,30 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
         <v>14</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" customHeight="1">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4107,16 +4104,16 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -4127,32 +4124,32 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="35.25" customHeight="1">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4167,15 +4164,15 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" customHeight="1">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4190,32 +4187,32 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="106.5" customHeight="1">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -4231,15 +4228,15 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -4255,18 +4252,18 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" t="s">
         <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
       </c>
       <c r="D15" s="4"/>
       <c r="F15">
@@ -4276,18 +4273,18 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -4303,15 +4300,15 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -4327,34 +4324,34 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="6"/>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="75">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -4368,7 +4365,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4417,19 +4414,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="46.5" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
@@ -4443,16 +4440,16 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -4463,24 +4460,24 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G4" s="3">
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4492,8 +4489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4530,18 +4527,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -4556,15 +4553,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -4579,7 +4576,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4587,7 +4584,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4623,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -4631,10 +4628,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4"/>
       <c r="F6">
@@ -4644,18 +4641,18 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="100.5" customHeight="1">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4668,18 +4665,18 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -4695,33 +4692,33 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="6"/>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="75">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4737,15 +4734,15 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4761,25 +4758,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="149">
   <si>
     <t>Name</t>
   </si>
@@ -359,9 +359,6 @@
   </si>
   <si>
     <t>fail to verify Confirm</t>
-  </si>
-  <si>
-    <t>fail to verify Assigend to me</t>
   </si>
   <si>
     <t>Fail to click Send Auth</t>
@@ -896,10 +893,10 @@
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -914,15 +911,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -937,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -945,7 +942,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -986,7 +983,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1007,7 +1004,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1072,7 +1069,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1132,7 +1129,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -1151,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1200,10 +1197,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1218,15 +1215,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1241,7 +1238,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="29.25" customHeight="1">
@@ -1249,7 +1246,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1285,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="66.75" customHeight="1">
@@ -1309,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1317,7 +1314,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1333,7 +1330,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -1341,7 +1338,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1357,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1377,8 +1374,11 @@
       <c r="F9">
         <v>1</v>
       </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1419,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
@@ -1523,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1600,10 +1600,10 @@
     </row>
     <row r="2" spans="1:10" ht="43.5" customHeight="1">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1618,15 +1618,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1641,7 +1641,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1">
@@ -1649,7 +1649,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1685,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="55.5" customHeight="1">
@@ -1709,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45">
@@ -1717,7 +1717,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1733,7 +1733,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="68.25" customHeight="1">
@@ -1741,7 +1741,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1757,7 +1757,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="168" customHeight="1">
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="41.25" customHeight="1">
@@ -1822,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="150">
@@ -1845,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1946,10 +1946,10 @@
     </row>
     <row r="2" spans="1:10" ht="40.5" customHeight="1">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1964,15 +1964,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="63" customHeight="1">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1987,7 +1987,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1">
@@ -1995,7 +1995,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2030,7 +2030,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2053,7 +2053,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" customHeight="1">
@@ -2061,7 +2061,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -2076,7 +2076,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -2084,7 +2084,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="H8" s="3"/>
       <c r="J8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2124,7 +2124,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2147,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2170,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2229,10 +2229,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2247,15 +2247,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2270,7 +2270,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2278,7 +2278,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2319,7 +2319,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2340,7 +2340,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2447,10 +2447,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2465,15 +2465,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2488,7 +2488,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2496,7 +2496,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2536,7 +2536,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2556,7 +2556,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2607,7 +2607,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -2627,7 +2627,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2725,15 +2725,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="39" customHeight="1">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2748,7 +2748,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1">
@@ -2756,7 +2756,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2818,7 +2818,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -2841,7 +2841,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2901,7 +2901,7 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3127,10 +3127,10 @@
     </row>
     <row r="2" spans="1:10" ht="42.75" customHeight="1">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3148,15 +3148,15 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3174,7 +3174,7 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1">
@@ -3182,7 +3182,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3254,7 +3254,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -3280,7 +3280,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -3576,10 +3576,10 @@
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3594,16 +3594,16 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3618,7 +3618,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -3627,7 +3627,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3696,7 +3696,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -3722,7 +3722,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -3770,7 +3770,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -3974,10 +3974,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3992,15 +3992,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -4015,7 +4015,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4023,7 +4023,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4066,7 +4066,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -4089,7 +4089,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4172,7 +4172,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4260,7 +4260,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -4332,7 +4332,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -4487,10 +4487,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4535,10 +4535,10 @@
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -4553,15 +4553,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -4576,7 +4576,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4584,7 +4584,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4628,7 +4628,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -4652,7 +4652,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4665,7 +4665,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>82</v>
@@ -4689,23 +4689,29 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30">
+    <row r="9" spans="1:10" ht="75">
       <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D9" s="6"/>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
       <c r="G9">
         <v>3</v>
       </c>
@@ -4713,12 +4719,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="75">
+    <row r="10" spans="1:10" ht="30">
       <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>143</v>
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>147</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4731,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>112</v>
@@ -4739,46 +4745,22 @@
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="J12" s="1" t="s">
         <v>103</v>
       </c>
     </row>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <t>//input[@aria-label="Please choose a user to assign:"]</t>
   </si>
   <si>
-    <t>allen</t>
-  </si>
-  <si>
     <t>Select Assign to</t>
   </si>
   <si>
@@ -473,6 +470,9 @@
   </si>
   <si>
     <t>//input[@ng-model="vm.searchName"]</t>
+  </si>
+  <si>
+    <t>she</t>
   </si>
 </sst>
 </file>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -885,18 +885,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -911,15 +911,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -942,7 +942,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -983,7 +983,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1004,7 +1004,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1052,7 +1052,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="11" spans="1:10" ht="66" customHeight="1">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1105,10 +1105,10 @@
     </row>
     <row r="12" spans="1:10" ht="31.5" customHeight="1">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1126,13 +1126,13 @@
     </row>
     <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4"/>
       <c r="G13">
@@ -1148,7 +1148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1189,18 +1189,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1215,15 +1215,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1238,7 +1238,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="29.25" customHeight="1">
@@ -1246,7 +1246,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1263,10 +1263,10 @@
     </row>
     <row r="5" spans="1:10" ht="101.25" customHeight="1">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1282,15 +1282,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="66.75" customHeight="1">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1314,7 +1314,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1330,7 +1330,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -1338,7 +1338,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1354,15 +1354,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1378,34 +1378,34 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="6"/>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="75">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1474,19 +1474,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="60">
       <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1500,16 +1500,16 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1523,24 +1523,24 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1592,18 +1592,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.5" customHeight="1">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1618,15 +1618,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1641,7 +1641,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1">
@@ -1649,7 +1649,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1666,10 +1666,10 @@
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1685,15 +1685,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="55.5" customHeight="1">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1709,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45">
@@ -1717,7 +1717,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1733,7 +1733,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="68.25" customHeight="1">
@@ -1741,7 +1741,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1757,15 +1757,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="168" customHeight="1">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1781,34 +1781,34 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="41.25" customHeight="1">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="6"/>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="180">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -1822,16 +1822,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="150">
       <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -1868,24 +1868,24 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1938,18 +1938,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="40.5" customHeight="1">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1964,15 +1964,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="63" customHeight="1">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1987,7 +1987,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1">
@@ -1995,7 +1995,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2012,10 +2012,10 @@
     </row>
     <row r="5" spans="1:10" ht="69.75" customHeight="1">
       <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2030,7 +2030,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2038,7 +2038,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2053,7 +2053,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" customHeight="1">
@@ -2061,7 +2061,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -2076,7 +2076,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -2084,7 +2084,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -2101,15 +2101,15 @@
       </c>
       <c r="H8" s="3"/>
       <c r="J8" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -2124,15 +2124,15 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -2147,15 +2147,15 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2170,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2221,18 +2221,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2247,15 +2247,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2270,7 +2270,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2278,7 +2278,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2319,7 +2319,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2340,7 +2340,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2358,10 +2358,10 @@
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2376,13 +2376,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="4"/>
       <c r="G9">
@@ -2439,18 +2439,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2465,15 +2465,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2488,7 +2488,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2496,7 +2496,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2536,7 +2536,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2556,7 +2556,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2573,10 +2573,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2590,13 +2590,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -2624,10 +2624,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2641,13 +2641,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -2663,7 +2663,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2699,18 +2699,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2725,15 +2725,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="39" customHeight="1">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2748,7 +2748,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1">
@@ -2756,7 +2756,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2773,10 +2773,10 @@
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2794,10 +2794,10 @@
     </row>
     <row r="6" spans="1:10" ht="59.25" customHeight="1">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2818,13 +2818,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2841,7 +2841,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2859,10 +2859,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -2880,13 +2880,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="6"/>
       <c r="G10">
@@ -2895,13 +2895,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
         <v>49</v>
       </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
         <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -2932,10 +2932,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
         <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -2952,10 +2952,10 @@
     </row>
     <row r="14" spans="1:10" ht="30">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -2972,10 +2972,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
         <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -2992,10 +2992,10 @@
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -3012,10 +3012,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
         <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -3032,10 +3032,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -3052,13 +3052,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
         <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3119,18 +3119,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42.75" customHeight="1">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3148,15 +3148,15 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3174,7 +3174,7 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1">
@@ -3182,7 +3182,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3203,10 +3203,10 @@
     </row>
     <row r="5" spans="1:10" ht="63.75" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -3222,15 +3222,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -3246,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -3254,13 +3254,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -3272,7 +3272,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
@@ -3280,7 +3280,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -3296,15 +3296,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -3320,34 +3320,34 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="G10" s="1">
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
       <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3361,16 +3361,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="74.25" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -3384,16 +3384,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
       <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -3407,16 +3407,16 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
@@ -3430,16 +3430,16 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60">
       <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
@@ -3453,15 +3453,15 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
@@ -3476,15 +3476,15 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -3499,24 +3499,24 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="G18" s="1">
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3568,18 +3568,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3594,16 +3594,16 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3618,7 +3618,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -3627,7 +3627,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3645,10 +3645,10 @@
     </row>
     <row r="5" spans="1:11" ht="65.25" customHeight="1">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -3664,15 +3664,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="48.75" customHeight="1">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -3688,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3696,13 +3696,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3714,7 +3714,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30">
@@ -3722,7 +3722,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -3738,15 +3738,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -3762,18 +3762,18 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10">
@@ -3786,16 +3786,16 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -3809,21 +3809,21 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3832,22 +3832,22 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
@@ -3855,36 +3855,36 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30">
       <c r="B15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
         <v>75</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>76</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
@@ -3895,12 +3895,12 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -3916,7 +3916,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3966,18 +3966,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3992,15 +3992,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -4015,7 +4015,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4023,7 +4023,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4058,7 +4058,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -4066,7 +4066,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -4081,7 +4081,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" customHeight="1">
@@ -4089,7 +4089,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4104,16 +4104,16 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -4124,32 +4124,32 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="35.25" customHeight="1">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4164,15 +4164,15 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" customHeight="1">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4187,32 +4187,32 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="106.5" customHeight="1">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -4228,15 +4228,15 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -4252,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4260,7 +4260,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -4276,7 +4276,7 @@
         <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
@@ -4284,7 +4284,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -4300,15 +4300,15 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -4324,34 +4324,34 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="6"/>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="75">
       <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4414,19 +4414,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="46.5" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
@@ -4440,16 +4440,16 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -4460,24 +4460,24 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G4" s="3">
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4489,8 +4489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4527,18 +4527,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -4553,15 +4553,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -4576,7 +4576,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4584,7 +4584,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4620,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -4628,7 +4628,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -4644,7 +4644,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="100.5" customHeight="1">
@@ -4652,7 +4652,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4668,15 +4668,15 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -4692,15 +4692,15 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="75">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -4716,15 +4716,15 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4740,18 +4740,18 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11">
@@ -4761,7 +4761,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -472,7 +472,7 @@
     <t>//input[@ng-model="vm.searchName"]</t>
   </si>
   <si>
-    <t>she</t>
+    <t>shellcey</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="150">
   <si>
     <t>Name</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>shellcey</t>
+  </si>
+  <si>
+    <t>(//button[@class="_md-no-style md-button md-blue-grey-theme md-ink-ripple"])[1]</t>
   </si>
 </sst>
 </file>
@@ -845,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1004,7 +1007,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2183,7 +2186,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2335,12 +2338,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45">
+    <row r="7" spans="1:10" ht="30">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2400,7 +2403,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2556,7 +2559,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2663,7 +2666,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2841,7 +2844,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -3077,7 +3080,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3280,7 +3283,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -3530,7 +3533,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3722,7 +3725,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -3928,8 +3931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4089,7 +4092,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4378,7 +4381,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15"/>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="151">
   <si>
     <t>Name</t>
   </si>
@@ -187,9 +187,6 @@
     <t>Select Clinician</t>
   </si>
   <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[2]</t>
-  </si>
-  <si>
     <t>Click Increase/Decrease</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>Click Frequency</t>
   </si>
   <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu//md-option[2]</t>
-  </si>
-  <si>
     <t>Input Number</t>
   </si>
   <si>
@@ -244,12 +238,6 @@
     <t>//md-virtual-repeat-container[@class="md-autocomplete-suggestions-container md-whiteframe-z1 md-virtual-repeat-container md-orient-vertical md-cs-content-theme-theme"]/div/div[2]/ul/li[1]</t>
   </si>
   <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[1]</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu//md-option[1]</t>
-  </si>
-  <si>
     <t>//button[@ng-click="vm.receiveAuthResponse(exchange, auth, $event)" and @aria-hidden="false"]</t>
   </si>
   <si>
@@ -451,9 +439,6 @@
     <t>//button[@ng-click="vm.deAssign(exchange)" and @aria-hidden="false"]</t>
   </si>
   <si>
-    <t>//*[@id="ui-admin-email"]//button[@ng-click="vm.sendAuthRequest(exchange, auth, $event)" and @class="md-primary md-raised md-hue-2 md-button md-cs-content-theme-theme md-ink-ripple"]</t>
-  </si>
-  <si>
     <t>(//button[@class="_md-no-style md-button md-cs-content-theme-theme md-ink-ripple"])[1]</t>
   </si>
   <si>
@@ -476,6 +461,24 @@
   </si>
   <si>
     <t>(//button[@class="_md-no-style md-button md-blue-grey-theme md-ink-ripple"])[1]</t>
+  </si>
+  <si>
+    <t>//button[@ng-show="auth.status == 'Open'"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-blue-grey-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[1]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-blue-grey-theme _md-active _md-clickable"]/md-select-menu//md-option[1]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-blue-grey-theme _md-active _md-clickable"]/md-select-menu//md-option[2]</t>
+  </si>
+  <si>
+    <t>(//button[@ng-show="auth.status == 'Open'"])[4]</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]//button[@ng-click="vm.sendAuthRequest(exchange, auth, $event)" and @class="md-primary md-raised md-hue-2 md-button md-blue-grey-theme md-ink-ripple"]</t>
   </si>
 </sst>
 </file>
@@ -849,7 +852,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -888,56 +891,56 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>133</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -945,7 +948,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -986,7 +989,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1007,7 +1010,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1055,7 +1058,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1072,7 +1075,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1093,7 +1096,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1132,7 +1135,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -1151,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1192,56 +1195,56 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>133</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="29.25" customHeight="1">
@@ -1249,7 +1252,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1285,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="66.75" customHeight="1">
@@ -1309,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1317,7 +1320,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1333,7 +1336,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -1341,7 +1344,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1357,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1381,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1399,7 +1402,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="75">
@@ -1422,7 +1425,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1477,18 +1480,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="60">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -1503,15 +1506,15 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -1526,12 +1529,12 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>24</v>
@@ -1543,7 +1546,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1595,56 +1598,56 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.5" customHeight="1">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>133</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1">
@@ -1652,7 +1655,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1688,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="55.5" customHeight="1">
@@ -1712,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45">
@@ -1720,7 +1723,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1736,7 +1739,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="68.25" customHeight="1">
@@ -1744,7 +1747,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1760,7 +1763,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="168" customHeight="1">
@@ -1784,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="41.25" customHeight="1">
@@ -1802,7 +1805,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="180">
@@ -1825,15 +1828,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="150">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1848,15 +1851,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1871,12 +1874,12 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1888,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1941,56 +1944,56 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="40.5" customHeight="1">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>133</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="63" customHeight="1">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1">
@@ -1998,7 +2001,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2015,10 +2018,10 @@
     </row>
     <row r="5" spans="1:10" ht="69.75" customHeight="1">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2033,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2056,7 +2059,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" customHeight="1">
@@ -2064,7 +2067,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -2079,7 +2082,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -2087,7 +2090,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -2104,7 +2107,7 @@
       </c>
       <c r="H8" s="3"/>
       <c r="J8" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2127,15 +2130,15 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -2150,7 +2153,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2158,7 +2161,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2173,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2224,56 +2227,56 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>133</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2281,7 +2284,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2322,7 +2325,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2343,7 +2346,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2403,13 +2406,13 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="183.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="23.42578125" customWidth="1"/>
@@ -2442,56 +2445,56 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>133</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2499,7 +2502,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2539,7 +2542,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2559,7 +2562,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2610,7 +2613,7 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -2630,7 +2633,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2665,8 +2668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2702,56 +2705,56 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>133</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="39" customHeight="1">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1">
@@ -2759,7 +2762,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2821,7 +2824,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -2844,7 +2847,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2904,7 +2907,7 @@
         <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2953,12 +2956,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -2975,30 +2978,30 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
         <v>54</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>55</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
       <c r="B16" s="3" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -3015,10 +3018,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -3035,7 +3038,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>22</v>
@@ -3055,7 +3058,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -3079,8 +3082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3122,18 +3125,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42.75" customHeight="1">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3151,15 +3154,15 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3177,7 +3180,7 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1">
@@ -3185,7 +3188,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3225,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51" customHeight="1">
@@ -3249,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -3257,7 +3260,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -3275,7 +3278,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
@@ -3283,7 +3286,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -3299,7 +3302,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
@@ -3323,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60.75" customHeight="1">
@@ -3341,7 +3344,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
@@ -3364,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="74.25" customHeight="1">
@@ -3387,15 +3390,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>53</v>
+      <c r="B13" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -3410,16 +3413,16 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
@@ -3433,15 +3436,15 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60">
       <c r="A15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -3456,15 +3459,15 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
@@ -3479,12 +3482,12 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>22</v>
@@ -3502,12 +3505,12 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
@@ -3519,7 +3522,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3571,57 +3574,57 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>133</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>137</v>
       </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>138</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -3630,7 +3633,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3667,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="48.75" customHeight="1">
@@ -3691,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3699,7 +3702,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -3717,7 +3720,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30">
@@ -3725,7 +3728,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -3741,7 +3744,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3765,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3773,7 +3776,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -3789,7 +3792,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60">
@@ -3812,7 +3815,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3835,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3858,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3875,18 +3878,18 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30">
       <c r="B15" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3898,12 +3901,12 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -3919,7 +3922,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3929,10 +3932,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3969,56 +3972,56 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>133</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4026,7 +4029,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4061,7 +4064,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -4069,7 +4072,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -4084,7 +4087,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" customHeight="1">
@@ -4092,7 +4095,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4107,7 +4110,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -4127,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
@@ -4144,7 +4147,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="35.25" customHeight="1">
@@ -4152,7 +4155,7 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4167,7 +4170,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" customHeight="1">
@@ -4175,7 +4178,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4190,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
@@ -4207,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="106.5" customHeight="1">
@@ -4231,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4255,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4263,7 +4266,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -4279,7 +4282,7 @@
         <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
@@ -4303,7 +4306,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
@@ -4327,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
@@ -4335,7 +4338,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -4345,7 +4348,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="75">
@@ -4368,7 +4371,12 @@
         <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4417,18 +4425,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="46.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -4443,15 +4451,15 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -4463,12 +4471,12 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>24</v>
@@ -4480,7 +4488,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4493,7 +4501,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4530,56 +4538,56 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>133</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4587,7 +4595,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4623,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -4631,7 +4639,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -4647,7 +4655,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="100.5" customHeight="1">
@@ -4655,7 +4663,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4671,7 +4679,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -4695,7 +4703,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="75">
@@ -4703,7 +4711,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -4719,7 +4727,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
@@ -4727,7 +4735,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4743,7 +4751,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
@@ -4764,7 +4772,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,15 @@
     <sheet name="AuthorizationSendAuths2" sheetId="9" r:id="rId9"/>
     <sheet name="authz3" sheetId="10" r:id="rId10"/>
     <sheet name="authz4" sheetId="14" r:id="rId11"/>
-    <sheet name="AuthorizationSaveResponseAuthz" sheetId="11" r:id="rId12"/>
-    <sheet name="AuthorizationApproved" sheetId="12" r:id="rId13"/>
+    <sheet name="AuthorizationApproved" sheetId="12" r:id="rId12"/>
+    <sheet name="AuthorizationSaveResponseAuthz" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="151">
   <si>
     <t>Name</t>
   </si>
@@ -478,7 +478,7 @@
     <t>(//button[@ng-show="auth.status == 'Open'"])[4]</t>
   </si>
   <si>
-    <t>//*[@id="ui-admin-email"]//button[@ng-click="vm.sendAuthRequest(exchange, auth, $event)" and @class="md-primary md-raised md-hue-2 md-button md-blue-grey-theme md-ink-ripple"]</t>
+    <t>//button[@class="md-primary md-raised md-hue-2 md-button md-blue-grey-theme md-ink-ripple" and @ng-show="auth.status == 'WaitForResponse'"]</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G14" sqref="G14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1556,6 +1556,290 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="69.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="40.5" customHeight="1">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="63" customHeight="1">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="75" customHeight="1">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="69.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="47.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="J8" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1897,290 +2181,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="69.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="30">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="40.5" customHeight="1">
-      <c r="A2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="63" customHeight="1">
-      <c r="A3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="75" customHeight="1">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="69.75" customHeight="1">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="47.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="J8" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2669,7 +2669,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2956,7 +2956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="30">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="30">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -3535,7 +3535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3927,15 +3927,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4351,32 +4352,75 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="75">
+    <row r="19" spans="1:10" ht="30">
       <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="75">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>5</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="B31" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4388,8 +4432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15"/>
@@ -4501,7 +4545,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4663,7 +4707,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4706,11 +4750,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="75">
+    <row r="9" spans="1:10" ht="30">
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>150</v>
       </c>
       <c r="C9" t="s">

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="152">
   <si>
     <t>Name</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>//button[@class="md-primary md-raised md-hue-2 md-button md-blue-grey-theme md-ink-ripple" and @ng-show="auth.status == 'WaitForResponse'"]</t>
+  </si>
+  <si>
+    <t>//button[@class="md-primary md-raised md-hue-2 md-button md-blue-grey-theme md-ink-ripple" and @ng-show="auth.status == 'Open'"]</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1158,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:H14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4545,7 +4548,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4755,7 +4758,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1298,8 +1298,8 @@
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>37</v>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1322,7 +1322,7 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>142</v>
       </c>
       <c r="C7" t="s">
@@ -1347,7 +1347,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1441,7 +1441,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3938,8 +3938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="151">
   <si>
     <t>Name</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>//button[@ng-click="vm.addClick()"]</t>
-  </si>
-  <si>
-    <t>verify Assign button</t>
   </si>
   <si>
     <t>//md-toast/div/span</t>
@@ -852,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -894,18 +891,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -920,15 +917,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -943,7 +940,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -951,7 +948,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -992,7 +989,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1013,7 +1010,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1061,7 +1058,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1078,7 +1075,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1099,7 +1096,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1130,21 +1127,6 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="G13">
         <v>3</v>
       </c>
     </row>
@@ -1155,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1198,18 +1180,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1224,15 +1206,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1247,7 +1229,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="29.25" customHeight="1">
@@ -1255,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1272,10 +1254,10 @@
     </row>
     <row r="5" spans="1:10" ht="101.25" customHeight="1">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1291,12 +1273,12 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="66.75" customHeight="1">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1315,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1323,7 +1305,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1339,7 +1321,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -1347,7 +1329,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1363,15 +1345,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1387,48 +1369,30 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="75">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="75">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1483,19 +1447,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="60">
       <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1509,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1532,24 +1496,24 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1601,18 +1565,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="40.5" customHeight="1">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1627,15 +1591,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="63" customHeight="1">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1650,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1">
@@ -1658,7 +1622,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1675,10 +1639,10 @@
     </row>
     <row r="5" spans="1:10" ht="69.75" customHeight="1">
       <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1693,7 +1657,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1701,7 +1665,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1716,7 +1680,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" customHeight="1">
@@ -1724,7 +1688,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1739,7 +1703,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -1747,7 +1711,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -1764,15 +1728,15 @@
       </c>
       <c r="H8" s="3"/>
       <c r="J8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1787,15 +1751,15 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1810,15 +1774,15 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1833,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1885,18 +1849,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.5" customHeight="1">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1911,15 +1875,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1934,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1">
@@ -1942,7 +1906,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1959,10 +1923,10 @@
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1978,15 +1942,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="55.5" customHeight="1">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2002,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45">
@@ -2010,7 +1974,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -2026,7 +1990,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="68.25" customHeight="1">
@@ -2034,7 +1998,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2050,15 +2014,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="168" customHeight="1">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -2074,34 +2038,34 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="41.25" customHeight="1">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" s="6"/>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="180">
       <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -2115,16 +2079,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="150">
       <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -2138,16 +2102,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -2161,24 +2125,24 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2189,10 +2153,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2230,18 +2194,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2256,15 +2220,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2279,7 +2243,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2287,7 +2251,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2328,7 +2292,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2349,7 +2313,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2367,10 +2331,10 @@
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2381,21 +2345,6 @@
       </c>
       <c r="F8">
         <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="G9">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2409,7 +2358,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2448,18 +2397,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2474,15 +2423,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2497,7 +2446,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2505,7 +2454,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2545,7 +2494,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2565,7 +2514,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2582,10 +2531,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2599,13 +2548,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2613,10 +2562,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -2633,10 +2582,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2650,13 +2599,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -2708,18 +2657,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2734,15 +2683,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="39" customHeight="1">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2757,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1">
@@ -2765,7 +2714,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2782,10 +2731,10 @@
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2803,10 +2752,10 @@
     </row>
     <row r="6" spans="1:10" ht="59.25" customHeight="1">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2827,13 +2776,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2850,7 +2799,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2868,10 +2817,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -2889,13 +2838,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" s="6"/>
       <c r="G10">
@@ -2904,13 +2853,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2921,10 +2870,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
         <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -2941,10 +2890,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
         <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -2961,10 +2910,10 @@
     </row>
     <row r="14" spans="1:10" ht="30">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -2981,10 +2930,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
         <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -3001,10 +2950,10 @@
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -3021,10 +2970,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
         <v>56</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -3041,7 +2990,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>22</v>
@@ -3061,13 +3010,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
         <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3128,18 +3077,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42.75" customHeight="1">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3157,15 +3106,15 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3183,7 +3132,7 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1">
@@ -3191,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3212,10 +3161,10 @@
     </row>
     <row r="5" spans="1:10" ht="63.75" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -3231,15 +3180,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -3255,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -3263,13 +3212,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -3281,7 +3230,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
@@ -3289,7 +3238,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -3305,15 +3254,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -3329,34 +3278,34 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="G10" s="1">
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
       <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3370,16 +3319,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="74.25" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -3393,15 +3342,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -3416,16 +3365,16 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
@@ -3439,15 +3388,15 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -3462,15 +3411,15 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
@@ -3485,12 +3434,12 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>22</v>
@@ -3508,24 +3457,24 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G18" s="1">
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3577,18 +3526,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3603,16 +3552,16 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3627,7 +3576,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -3636,7 +3585,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3654,10 +3603,10 @@
     </row>
     <row r="5" spans="1:11" ht="65.25" customHeight="1">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -3673,15 +3622,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="48.75" customHeight="1">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -3697,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3705,13 +3654,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3723,7 +3672,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30">
@@ -3731,7 +3680,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -3747,15 +3696,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -3771,18 +3720,18 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10">
@@ -3795,16 +3744,16 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60">
       <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -3818,21 +3767,21 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3841,22 +3790,22 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
@@ -3864,36 +3813,36 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30">
       <c r="B15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
         <v>70</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
@@ -3904,12 +3853,12 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -3925,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3976,18 +3925,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -4002,15 +3951,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -4025,7 +3974,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4033,7 +3982,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4068,7 +4017,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -4076,7 +4025,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -4091,7 +4040,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" customHeight="1">
@@ -4099,7 +4048,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4114,16 +4063,16 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -4134,32 +4083,32 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="35.25" customHeight="1">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4174,15 +4123,15 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" customHeight="1">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4197,32 +4146,32 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="106.5" customHeight="1">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -4238,15 +4187,15 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -4262,7 +4211,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4270,7 +4219,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -4286,7 +4235,7 @@
         <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
@@ -4294,7 +4243,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -4310,15 +4259,15 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -4334,33 +4283,33 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="6"/>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -4376,15 +4325,15 @@
         <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -4400,16 +4349,16 @@
         <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="75">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
@@ -4423,7 +4372,7 @@
         <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4472,19 +4421,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="46.5" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
@@ -4498,16 +4447,16 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -4518,24 +4467,24 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" s="3">
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4585,18 +4534,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -4611,15 +4560,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -4634,7 +4583,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4642,7 +4591,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4678,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -4686,7 +4635,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -4702,7 +4651,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="100.5" customHeight="1">
@@ -4710,7 +4659,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4726,15 +4675,15 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -4750,15 +4699,15 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -4774,15 +4723,15 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4798,18 +4747,18 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11">
@@ -4819,7 +4768,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="150">
   <si>
     <t>Name</t>
   </si>
@@ -431,9 +431,6 @@
   </si>
   <si>
     <t>//button[@ng-click="vm.go(entry.state)" and @aria-label="Authorization"]</t>
-  </si>
-  <si>
-    <t>//button[@ng-click="vm.deAssign(exchange)" and @aria-hidden="false"]</t>
   </si>
   <si>
     <t>(//button[@class="_md-no-style md-button md-cs-content-theme-theme md-ink-ripple"])[1]</t>
@@ -849,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -989,7 +986,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1010,7 +1007,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1058,7 +1055,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1075,7 +1072,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1127,6 +1124,23 @@
         <v>1</v>
       </c>
       <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>3</v>
       </c>
     </row>
@@ -1305,7 +1319,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1329,7 +1343,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1688,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1711,7 +1725,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -1974,7 +1988,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1998,7 +2012,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2156,7 +2170,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2292,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2313,7 +2327,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2355,10 +2369,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2494,7 +2508,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2514,7 +2528,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2565,7 +2579,7 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -2585,7 +2599,7 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2609,6 +2623,24 @@
       </c>
       <c r="G12">
         <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2618,10 +2650,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2776,7 +2808,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -2799,7 +2831,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2859,7 +2891,7 @@
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2913,7 +2945,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -2953,7 +2985,7 @@
         <v>54</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -3023,6 +3055,24 @@
       </c>
       <c r="G19">
         <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3032,10 +3082,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3212,7 +3262,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -3238,7 +3288,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -3350,7 +3400,7 @@
         <v>51</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -3396,7 +3446,7 @@
         <v>54</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -3475,6 +3525,24 @@
       </c>
       <c r="J18" s="1" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" customFormat="1" ht="30">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3485,10 +3553,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3654,7 +3722,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -3680,7 +3748,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -3727,24 +3795,17 @@
       <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>135</v>
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="6"/>
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
         <v>3</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60">
@@ -3875,6 +3936,27 @@
       </c>
       <c r="J16" s="1" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3885,10 +3967,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4025,7 +4107,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -4048,7 +4130,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4108,7 +4190,7 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4131,7 +4213,7 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4219,7 +4301,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -4286,22 +4368,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>135</v>
+      <c r="B18" t="s">
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="E18">
+        <v>1</v>
+      </c>
       <c r="G18">
         <v>3</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30">
@@ -4309,7 +4390,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -4333,7 +4414,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -4373,6 +4454,24 @@
       </c>
       <c r="J21" s="1" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4496,8 +4595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4635,7 +4734,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -4659,7 +4758,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4707,7 +4806,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -4731,7 +4830,7 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="150">
   <si>
     <t>Name</t>
   </si>
@@ -3556,7 +3556,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3967,9 +3967,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -4344,77 +4344,74 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>0</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>24</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="30">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="6"/>
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
       <c r="G19">
         <v>3</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -4427,50 +4424,74 @@
         <v>1</v>
       </c>
       <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>2</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="75">
-      <c r="A21" t="s">
+    <row r="22" spans="1:10" ht="75">
+      <c r="A22" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>5</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30">
-      <c r="A22" t="s">
+    <row r="23" spans="1:10" ht="30">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>1</v>
       </c>
     </row>
@@ -4595,8 +4616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="151">
   <si>
     <t>Name</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Click Message input</t>
   </si>
   <si>
-    <t>(//input[@ng-model="vm.newChatComment"])[2]</t>
-  </si>
-  <si>
     <t>Hello World!</t>
   </si>
   <si>
@@ -476,6 +473,12 @@
   </si>
   <si>
     <t>//button[@class="md-primary md-raised md-hue-2 md-button md-blue-grey-theme md-ink-ripple" and @ng-show="auth.status == 'Open'"]</t>
+  </si>
+  <si>
+    <t>(//textarea[@ng-model="vm.newChatComment"])[2]</t>
+  </si>
+  <si>
+    <t>(//button[@ng-click="vm.addNewChatComment(exchange)"])[2]</t>
   </si>
 </sst>
 </file>
@@ -888,18 +891,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -914,15 +917,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -937,7 +940,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -945,7 +948,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -986,7 +989,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1007,7 +1010,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1055,7 +1058,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1072,7 +1075,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1093,7 +1096,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -1194,18 +1197,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1220,15 +1223,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1243,7 +1246,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="29.25" customHeight="1">
@@ -1251,7 +1254,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1287,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="66.75" customHeight="1">
@@ -1311,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1319,7 +1322,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1335,7 +1338,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -1343,7 +1346,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1359,7 +1362,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1383,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="75">
@@ -1406,7 +1409,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1461,19 +1464,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="60">
       <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1487,16 +1490,16 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1510,12 +1513,12 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
@@ -1527,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1579,18 +1582,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="40.5" customHeight="1">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1605,15 +1608,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="63" customHeight="1">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1628,7 +1631,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1">
@@ -1636,7 +1639,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1653,10 +1656,10 @@
     </row>
     <row r="5" spans="1:10" ht="69.75" customHeight="1">
       <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1671,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1694,7 +1697,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" customHeight="1">
@@ -1702,7 +1705,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1717,7 +1720,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -1725,7 +1728,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -1742,7 +1745,7 @@
       </c>
       <c r="H8" s="3"/>
       <c r="J8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1765,15 +1768,15 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1788,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1796,7 +1799,7 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1811,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1863,18 +1866,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.5" customHeight="1">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1889,15 +1892,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1912,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1">
@@ -1920,7 +1923,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1956,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="55.5" customHeight="1">
@@ -1980,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45">
@@ -1988,7 +1991,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -2004,7 +2007,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="68.25" customHeight="1">
@@ -2012,7 +2015,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2028,7 +2031,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="168" customHeight="1">
@@ -2052,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="41.25" customHeight="1">
@@ -2070,7 +2073,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="180">
@@ -2093,16 +2096,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="150">
       <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -2116,16 +2119,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -2139,12 +2142,12 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -2156,7 +2159,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2208,18 +2211,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2234,15 +2237,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2257,7 +2260,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2265,7 +2268,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2306,7 +2309,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2327,7 +2330,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2411,18 +2414,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2437,15 +2440,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2460,7 +2463,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2468,7 +2471,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2508,7 +2511,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2528,7 +2531,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2579,7 +2582,7 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -2599,7 +2602,7 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2625,7 +2628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2689,18 +2692,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2715,15 +2718,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="39" customHeight="1">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2738,7 +2741,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1">
@@ -2746,7 +2749,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2808,7 +2811,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -2831,7 +2834,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2885,13 +2888,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2902,10 +2905,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
         <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -2922,10 +2925,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
         <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -2942,10 +2945,10 @@
     </row>
     <row r="14" spans="1:10" ht="30">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -2962,10 +2965,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
         <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -2982,10 +2985,10 @@
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -3002,10 +3005,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
         <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -3022,7 +3025,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>22</v>
@@ -3042,7 +3045,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -3057,7 +3060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -3127,18 +3130,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42.75" customHeight="1">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3156,15 +3159,15 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3182,7 +3185,7 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1">
@@ -3190,7 +3193,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3230,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51" customHeight="1">
@@ -3254,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -3262,7 +3265,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -3280,7 +3283,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
@@ -3288,7 +3291,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -3304,7 +3307,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
@@ -3328,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60.75" customHeight="1">
@@ -3346,16 +3349,16 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
       <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3369,16 +3372,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="74.25" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -3392,15 +3395,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -3415,16 +3418,16 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
@@ -3438,15 +3441,15 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -3461,15 +3464,15 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
@@ -3484,12 +3487,12 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>22</v>
@@ -3507,12 +3510,12 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>23</v>
@@ -3524,7 +3527,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:10" customFormat="1" ht="30">
@@ -3556,7 +3559,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3594,18 +3597,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3620,16 +3623,16 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3644,7 +3647,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -3653,7 +3656,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3690,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="48.75" customHeight="1">
@@ -3714,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3722,7 +3725,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -3740,7 +3743,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30">
@@ -3748,7 +3751,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -3764,7 +3767,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3788,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3828,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3836,13 +3839,13 @@
         <v>41</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3851,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3859,14 +3862,14 @@
         <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
@@ -3874,12 +3877,12 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>23</v>
@@ -3891,19 +3894,19 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30">
       <c r="B15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
         <v>69</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
@@ -3914,12 +3917,12 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -3935,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3969,8 +3972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4007,18 +4010,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -4033,15 +4036,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -4056,7 +4059,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4064,7 +4067,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4099,7 +4102,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -4107,7 +4110,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -4122,7 +4125,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" customHeight="1">
@@ -4130,7 +4133,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4145,7 +4148,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -4165,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
@@ -4182,7 +4185,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="35.25" customHeight="1">
@@ -4190,7 +4193,7 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4205,7 +4208,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" customHeight="1">
@@ -4213,7 +4216,7 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4228,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
@@ -4245,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="106.5" customHeight="1">
@@ -4269,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4293,7 +4296,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4301,7 +4304,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -4317,7 +4320,7 @@
         <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
@@ -4341,7 +4344,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4386,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4411,7 +4414,7 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -4427,7 +4430,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30">
@@ -4435,7 +4438,7 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -4451,7 +4454,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="75">
@@ -4474,10 +4477,10 @@
         <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -4541,19 +4544,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="46.5" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
@@ -4567,16 +4570,16 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -4587,12 +4590,12 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>23</v>
@@ -4604,7 +4607,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4654,18 +4657,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -4680,15 +4683,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -4703,7 +4706,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4711,7 +4714,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4747,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -4755,7 +4758,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -4771,7 +4774,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="100.5" customHeight="1">
@@ -4779,7 +4782,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4795,7 +4798,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -4819,7 +4822,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
@@ -4827,7 +4830,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -4843,7 +4846,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
@@ -4851,7 +4854,7 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4867,7 +4870,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
@@ -4888,7 +4891,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" tabRatio="917"/>
   </bookViews>
   <sheets>
     <sheet name="AuthorizationASSIGNTO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="149">
   <si>
     <t>Name</t>
   </si>
@@ -88,9 +88,6 @@
     <t>//input[@aria-label="Please choose a user to assign:"]</t>
   </si>
   <si>
-    <t>Select Assign to</t>
-  </si>
-  <si>
     <t>Click Assign button</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
   </si>
   <si>
     <t>//button[@ng-click="vm.closeEntry(exchange, $event)"]</t>
-  </si>
-  <si>
-    <t>//md-virtual-repeat-container[@class="md-autocomplete-suggestions-container md-whiteframe-z1 md-virtual-repeat-container md-orient-vertical md-cs-content-theme-theme"]/div/div[2]/ul/li[1]</t>
   </si>
   <si>
     <t>//button[@ng-click="vm.receiveAuthResponse(exchange, auth, $event)" and @aria-hidden="false"]</t>
@@ -849,16 +843,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="2" width="69.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" customWidth="1"/>
     <col min="8" max="8" width="26.85546875" customWidth="1"/>
@@ -891,18 +886,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -917,15 +912,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -940,7 +935,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -948,7 +943,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -989,7 +984,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1010,7 +1005,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1058,7 +1053,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1075,7 +1070,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1091,12 +1086,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="66" customHeight="1">
+    <row r="11" spans="1:10" ht="31.5" customHeight="1">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>67</v>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1105,45 +1100,27 @@
       <c r="E11">
         <v>1</v>
       </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
       <c r="G11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="31.5" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>23</v>
+      </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
       <c r="G12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="G13">
         <v>3</v>
       </c>
     </row>
@@ -1197,18 +1174,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1223,15 +1200,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1246,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="29.25" customHeight="1">
@@ -1254,7 +1231,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1271,10 +1248,10 @@
     </row>
     <row r="5" spans="1:10" ht="101.25" customHeight="1">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1290,12 +1267,12 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="66.75" customHeight="1">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1314,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1322,7 +1299,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1338,7 +1315,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -1346,7 +1323,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1362,15 +1339,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1386,15 +1363,15 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="75">
       <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1409,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1464,19 +1441,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="60">
       <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1490,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1513,24 +1490,24 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1582,18 +1559,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="40.5" customHeight="1">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1608,15 +1585,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="63" customHeight="1">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1631,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1">
@@ -1639,7 +1616,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1656,10 +1633,10 @@
     </row>
     <row r="5" spans="1:10" ht="69.75" customHeight="1">
       <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1674,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1682,7 +1659,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1697,7 +1674,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" customHeight="1">
@@ -1705,7 +1682,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1720,7 +1697,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -1728,7 +1705,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -1745,15 +1722,15 @@
       </c>
       <c r="H8" s="3"/>
       <c r="J8" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1768,15 +1745,15 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1791,15 +1768,15 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1814,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1866,18 +1843,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.5" customHeight="1">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1892,15 +1869,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1915,7 +1892,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1">
@@ -1923,7 +1900,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1940,10 +1917,10 @@
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1959,15 +1936,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="55.5" customHeight="1">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1983,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45">
@@ -1991,7 +1968,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -2007,7 +1984,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="68.25" customHeight="1">
@@ -2015,7 +1992,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2031,15 +2008,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="168" customHeight="1">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -2055,34 +2032,34 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="41.25" customHeight="1">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
       <c r="D10" s="6"/>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="180">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -2096,16 +2073,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="150">
       <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -2119,16 +2096,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -2142,24 +2119,24 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2211,18 +2188,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2237,15 +2214,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2260,7 +2237,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2268,7 +2245,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2309,7 +2286,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2330,7 +2307,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2348,10 +2325,10 @@
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2414,18 +2391,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2440,15 +2417,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2463,7 +2440,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2471,7 +2448,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2511,7 +2488,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2531,7 +2508,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2548,10 +2525,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2565,13 +2542,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2579,10 +2556,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -2599,10 +2576,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2616,13 +2593,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -2630,10 +2607,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -2692,18 +2669,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2718,15 +2695,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="39" customHeight="1">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2741,7 +2718,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1">
@@ -2749,7 +2726,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2766,10 +2743,10 @@
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2787,10 +2764,10 @@
     </row>
     <row r="6" spans="1:10" ht="59.25" customHeight="1">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2811,13 +2788,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2834,7 +2811,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2852,10 +2829,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -2873,13 +2850,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
       <c r="D10" s="6"/>
       <c r="G10">
@@ -2888,13 +2865,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2905,10 +2882,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
         <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -2925,10 +2902,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
         <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -2945,10 +2922,10 @@
     </row>
     <row r="14" spans="1:10" ht="30">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -2965,10 +2942,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
         <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -2985,10 +2962,10 @@
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -3005,10 +2982,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
         <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -3025,10 +3002,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -3045,13 +3022,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
         <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3062,10 +3039,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -3130,18 +3107,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42.75" customHeight="1">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3159,15 +3136,15 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3185,7 +3162,7 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1">
@@ -3193,7 +3170,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3214,10 +3191,10 @@
     </row>
     <row r="5" spans="1:10" ht="63.75" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -3233,15 +3210,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -3257,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -3265,13 +3242,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -3283,7 +3260,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
@@ -3291,7 +3268,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -3307,15 +3284,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -3331,34 +3308,34 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="G10" s="1">
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
       <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3372,16 +3349,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="74.25" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -3395,15 +3372,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -3418,16 +3395,16 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
@@ -3441,15 +3418,15 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -3464,15 +3441,15 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
@@ -3487,15 +3464,15 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -3510,32 +3487,32 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G18" s="1">
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:10" customFormat="1" ht="30">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -3597,18 +3574,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3623,16 +3600,16 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3647,7 +3624,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -3656,7 +3633,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3674,10 +3651,10 @@
     </row>
     <row r="5" spans="1:11" ht="65.25" customHeight="1">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -3693,15 +3670,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="48.75" customHeight="1">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -3717,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3725,13 +3702,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3743,7 +3720,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30">
@@ -3751,7 +3728,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -3767,15 +3744,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -3791,18 +3768,18 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3813,11 +3790,11 @@
     </row>
     <row r="11" spans="1:11" ht="60">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -3831,21 +3808,21 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3854,22 +3831,22 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
@@ -3877,35 +3854,35 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30">
       <c r="B15" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3917,12 +3894,12 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -3938,15 +3915,15 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -3972,8 +3949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4010,18 +3987,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -4036,15 +4013,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -4059,7 +4036,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4067,7 +4044,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4102,7 +4079,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -4110,7 +4087,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -4125,7 +4102,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" customHeight="1">
@@ -4133,7 +4110,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4148,16 +4125,16 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -4168,32 +4145,32 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="35.25" customHeight="1">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4208,15 +4185,15 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" customHeight="1">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4231,32 +4208,32 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="106.5" customHeight="1">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -4272,15 +4249,15 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -4296,7 +4273,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4304,7 +4281,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -4320,7 +4297,7 @@
         <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
@@ -4328,7 +4305,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -4344,15 +4321,15 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -4370,10 +4347,10 @@
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -4389,18 +4366,18 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
         <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4411,10 +4388,10 @@
     </row>
     <row r="20" spans="1:10" ht="30">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -4430,15 +4407,15 @@
         <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -4454,15 +4431,15 @@
         <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="75">
       <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -4477,15 +4454,15 @@
         <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -4544,19 +4521,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="46.5" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
@@ -4570,16 +4547,16 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -4590,24 +4567,24 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="3">
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4657,18 +4634,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -4683,15 +4660,15 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -4706,7 +4683,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4714,7 +4691,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4750,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -4758,7 +4735,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -4774,7 +4751,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="100.5" customHeight="1">
@@ -4782,7 +4759,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4798,15 +4775,15 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -4822,15 +4799,15 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -4846,15 +4823,15 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4870,18 +4847,18 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11">
@@ -4891,7 +4868,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Authorization.xlsx
+++ b/resources/Authorization.xlsx
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2352,7 +2352,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
